--- a/Assets/Resources/Localization/SMILocalization.xlsx
+++ b/Assets/Resources/Localization/SMILocalization.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>Key</t>
   </si>
@@ -20,6 +20,15 @@
   </si>
   <si>
     <t>nl</t>
+  </si>
+  <si>
+    <t>ACHIEVEMENTS</t>
+  </si>
+  <si>
+    <t>Achievements</t>
+  </si>
+  <si>
+    <t>Prestaties</t>
   </si>
   <si>
     <t>ANSWER</t>
@@ -65,6 +74,15 @@
   </si>
   <si>
     <t>CANCEL</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>XXXX</t>
   </si>
   <si>
     <t>COMMENT_NEGATIVE</t>
@@ -140,6 +158,12 @@
   </si>
   <si>
     <t>Perfect!</t>
+  </si>
+  <si>
+    <t>FRIENDS</t>
+  </si>
+  <si>
+    <t>Friends</t>
   </si>
   <si>
     <t>INCOMING_CALL</t>
@@ -219,6 +243,18 @@
     <t>Modules</t>
   </si>
   <si>
+    <t>NEAR</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>NEARBY</t>
+  </si>
+  <si>
+    <t>Nearby</t>
+  </si>
+  <si>
     <t>NEXT</t>
   </si>
   <si>
@@ -228,6 +264,12 @@
     <t>Volgende</t>
   </si>
   <si>
+    <t>PAGE</t>
+  </si>
+  <si>
+    <t>Page {0}</t>
+  </si>
+  <si>
     <t>PLAY</t>
   </si>
   <si>
@@ -235,6 +277,12 @@
   </si>
   <si>
     <t>Speel</t>
+  </si>
+  <si>
+    <t>PREVIOUS</t>
+  </si>
+  <si>
+    <t>Previous</t>
   </si>
   <si>
     <t>PROBLEM</t>
@@ -286,6 +334,18 @@
   </si>
   <si>
     <t>Oplossing</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -383,13 +443,13 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
@@ -402,13 +462,13 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
@@ -421,13 +481,13 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2"/>
@@ -466,7 +526,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -478,14 +538,14 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
+      <c r="A7" s="2" t="s">
+        <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -497,14 +557,14 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -516,13 +576,13 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2"/>
@@ -541,7 +601,7 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="2"/>
@@ -554,14 +614,14 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -573,14 +633,14 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
+      <c r="A12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -593,13 +653,13 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -611,13 +671,13 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
+      <c r="A14" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="2"/>
@@ -630,13 +690,13 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2"/>
@@ -687,13 +747,13 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="2"/>
@@ -706,14 +766,14 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -744,7 +804,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -770,7 +830,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -783,47 +843,32 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -836,10 +881,10 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>67</v>
@@ -863,14 +908,29 @@
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
@@ -899,7 +959,7 @@
         <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -911,14 +971,14 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>79</v>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -930,14 +990,14 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>80</v>
+      <c r="A30" s="1" t="s">
+        <v>78</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>81</v>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>82</v>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -950,13 +1010,13 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -968,14 +1028,14 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>85</v>
+      <c r="A32" s="1" t="s">
+        <v>83</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>86</v>
+      <c r="B32" s="1" t="s">
+        <v>84</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>87</v>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -988,13 +1048,13 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1006,9 +1066,15 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1019,9 +1085,15 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1032,9 +1104,15 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1045,9 +1123,15 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1058,9 +1142,15 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1071,9 +1161,15 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1083,10 +1179,16 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+    <row r="40" ht="13.5" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1096,10 +1198,16 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1110,9 +1218,15 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1161,7 +1275,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1174,7 +1288,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -13550,19 +13664,6 @@
       <c r="J998" s="2"/>
       <c r="K998" s="2"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Localization/SMILocalization.xlsx
+++ b/Assets/Resources/Localization/SMILocalization.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\Projects\RAGE\SpaceMods\Assets\Resources\Localization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18250"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="StringLocalizations" sheetId="1" r:id="rId3"/>
+    <sheet name="StringLocalizations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="125">
   <si>
     <t>Key</t>
   </si>
@@ -347,16 +355,71 @@
   <si>
     <t>Volume</t>
   </si>
+  <si>
+    <t>POINTS_CLOSURE</t>
+  </si>
+  <si>
+    <t>POINTS_EMPATHY</t>
+  </si>
+  <si>
+    <t>POINTS_POLITE</t>
+  </si>
+  <si>
+    <t>POINTS_FAQ</t>
+  </si>
+  <si>
+    <t>POINTS_INQUIRE</t>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>Empathy</t>
+  </si>
+  <si>
+    <t>Polite</t>
+  </si>
+  <si>
+    <t>Inquire</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Beleefd</t>
+  </si>
+  <si>
+    <t>Empathie</t>
+  </si>
+  <si>
+    <t>Sluiting</t>
+  </si>
+  <si>
+    <t>Informeren</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,7 +427,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -373,64 +436,331 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.0"/>
-    <col customWidth="1" min="2" max="2" width="22.88"/>
-    <col customWidth="1" min="3" max="3" width="27.38"/>
-    <col customWidth="1" min="4" max="4" width="10.38"/>
-    <col customWidth="1" min="5" max="5" width="11.25"/>
-    <col customWidth="1" min="6" max="6" width="10.25"/>
-    <col customWidth="1" min="7" max="7" width="12.75"/>
-    <col customWidth="1" min="8" max="8" width="15.38"/>
-    <col customWidth="1" min="9" max="9" width="11.88"/>
-    <col customWidth="1" min="10" max="10" width="12.63"/>
-    <col customWidth="1" min="11" max="11" width="11.25"/>
-    <col customWidth="1" min="12" max="26" width="7.63"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" customWidth="1"/>
+    <col min="12" max="26" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2"/>
@@ -442,7 +772,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -461,7 +791,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -480,7 +810,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -499,7 +829,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -518,7 +848,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -537,7 +867,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -556,7 +886,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -575,14 +905,14 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="2"/>
@@ -594,7 +924,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -613,7 +943,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -632,7 +962,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -651,7 +981,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -670,7 +1000,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -689,7 +1019,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -708,7 +1038,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -727,7 +1057,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -746,7 +1076,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -765,14 +1095,14 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="2"/>
@@ -784,7 +1114,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -803,7 +1133,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -822,7 +1152,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -841,7 +1171,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -860,7 +1190,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
@@ -879,7 +1209,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>65</v>
       </c>
@@ -898,7 +1228,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -932,7 +1262,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>71</v>
       </c>
@@ -951,7 +1281,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
@@ -970,14 +1300,14 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="2"/>
@@ -989,14 +1319,14 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="2"/>
@@ -1008,7 +1338,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>80</v>
       </c>
@@ -1027,14 +1357,14 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="2"/>
@@ -1046,7 +1376,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
@@ -1065,14 +1395,14 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="2"/>
@@ -1084,7 +1414,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -1103,7 +1433,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>93</v>
       </c>
@@ -1122,7 +1452,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>96</v>
       </c>
@@ -1141,7 +1471,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>99</v>
       </c>
@@ -1160,7 +1490,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>101</v>
       </c>
@@ -1179,7 +1509,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
+    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>104</v>
       </c>
@@ -1198,14 +1528,14 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="2"/>
@@ -1217,14 +1547,14 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="2"/>
@@ -1236,10 +1566,16 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1249,10 +1585,16 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1262,10 +1604,16 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1275,10 +1623,16 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1288,10 +1642,16 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1301,7 +1661,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1314,7 +1674,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1327,7 +1687,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1340,7 +1700,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1353,7 +1713,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1366,7 +1726,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1379,7 +1739,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1392,7 +1752,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1405,7 +1765,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1418,7 +1778,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1431,7 +1791,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1444,7 +1804,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1457,7 +1817,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1470,7 +1830,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1483,7 +1843,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1496,7 +1856,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1509,7 +1869,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1522,7 +1882,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1535,7 +1895,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1548,7 +1908,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1561,7 +1921,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1574,7 +1934,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1587,7 +1947,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1600,7 +1960,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1613,7 +1973,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1626,7 +1986,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1639,7 +1999,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1652,7 +2012,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1665,7 +2025,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1678,7 +2038,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1691,7 +2051,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1704,7 +2064,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1717,7 +2077,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1730,7 +2090,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1743,7 +2103,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1756,7 +2116,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1769,7 +2129,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1782,7 +2142,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1795,7 +2155,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1808,7 +2168,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1821,7 +2181,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1834,7 +2194,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1847,7 +2207,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1860,7 +2220,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1873,7 +2233,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1886,7 +2246,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1899,7 +2259,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1912,7 +2272,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1925,7 +2285,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1938,7 +2298,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1951,7 +2311,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1964,7 +2324,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1977,7 +2337,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1990,7 +2350,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2003,7 +2363,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2016,7 +2376,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2029,7 +2389,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2042,7 +2402,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2055,7 +2415,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2068,7 +2428,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2081,7 +2441,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2094,7 +2454,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2107,7 +2467,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2120,7 +2480,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2133,7 +2493,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2146,7 +2506,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2159,7 +2519,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2172,7 +2532,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2185,7 +2545,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2198,7 +2558,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2211,7 +2571,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2224,7 +2584,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2237,7 +2597,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2250,7 +2610,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2263,7 +2623,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2276,7 +2636,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2289,7 +2649,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2302,7 +2662,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2315,7 +2675,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2328,7 +2688,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2341,7 +2701,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2354,7 +2714,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2367,7 +2727,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2380,7 +2740,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2393,7 +2753,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2406,7 +2766,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2419,7 +2779,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2432,7 +2792,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2445,7 +2805,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2458,7 +2818,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2471,7 +2831,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2484,7 +2844,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2497,7 +2857,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2510,7 +2870,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2523,7 +2883,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2536,7 +2896,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2549,7 +2909,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2562,7 +2922,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2575,7 +2935,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2588,7 +2948,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2601,7 +2961,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2614,7 +2974,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2627,7 +2987,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2640,7 +3000,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2653,7 +3013,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2666,7 +3026,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2679,7 +3039,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2692,7 +3052,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2705,7 +3065,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2718,7 +3078,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2731,7 +3091,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2744,7 +3104,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2757,7 +3117,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2770,7 +3130,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2783,7 +3143,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2796,7 +3156,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2809,7 +3169,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2822,7 +3182,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2835,7 +3195,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2848,7 +3208,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2861,7 +3221,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2874,7 +3234,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2887,7 +3247,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2900,7 +3260,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2913,7 +3273,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2926,7 +3286,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2939,7 +3299,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2952,7 +3312,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2965,7 +3325,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2978,7 +3338,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2991,7 +3351,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3004,7 +3364,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3017,7 +3377,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3030,7 +3390,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3043,7 +3403,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3056,7 +3416,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3069,7 +3429,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3082,7 +3442,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3095,7 +3455,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3108,7 +3468,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3121,7 +3481,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3134,7 +3494,7 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3147,7 +3507,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3160,7 +3520,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3173,7 +3533,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3186,7 +3546,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3199,7 +3559,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3212,7 +3572,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3225,7 +3585,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3238,7 +3598,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3251,7 +3611,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3264,7 +3624,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3277,7 +3637,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3290,7 +3650,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3303,7 +3663,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3316,7 +3676,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3329,7 +3689,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3342,7 +3702,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3355,7 +3715,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3368,7 +3728,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3381,7 +3741,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3394,7 +3754,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3407,7 +3767,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3420,7 +3780,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3433,7 +3793,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3446,7 +3806,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3459,7 +3819,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3472,7 +3832,7 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3485,7 +3845,7 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3498,7 +3858,7 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3511,7 +3871,7 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3524,7 +3884,7 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3537,7 +3897,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3550,7 +3910,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3563,7 +3923,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3576,7 +3936,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3589,7 +3949,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -3602,7 +3962,7 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -3615,7 +3975,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -3628,7 +3988,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -3641,7 +4001,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -3654,7 +4014,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -3667,7 +4027,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -3680,7 +4040,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -3693,7 +4053,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -3706,7 +4066,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -3719,7 +4079,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -3732,7 +4092,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -3745,7 +4105,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3758,7 +4118,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3771,7 +4131,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3784,7 +4144,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -3797,7 +4157,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -3810,7 +4170,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -3823,7 +4183,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -3836,7 +4196,7 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -3849,7 +4209,7 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -3862,7 +4222,7 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -3875,7 +4235,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -3888,7 +4248,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -3901,7 +4261,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -3914,7 +4274,7 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -3927,7 +4287,7 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -3940,7 +4300,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -3953,7 +4313,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -3966,7 +4326,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -3979,7 +4339,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -3992,7 +4352,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -4005,7 +4365,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -4018,7 +4378,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -4031,7 +4391,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -4044,7 +4404,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -4057,7 +4417,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4070,7 +4430,7 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4083,7 +4443,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4096,7 +4456,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -4109,7 +4469,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -4122,7 +4482,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -4135,7 +4495,7 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -4148,7 +4508,7 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -4161,7 +4521,7 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -4174,7 +4534,7 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -4187,7 +4547,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -4200,7 +4560,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -4213,7 +4573,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -4226,7 +4586,7 @@
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -4239,7 +4599,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -4252,7 +4612,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -4265,7 +4625,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -4278,7 +4638,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -4291,7 +4651,7 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -4304,7 +4664,7 @@
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -4317,7 +4677,7 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -4330,7 +4690,7 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -4343,7 +4703,7 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -4356,7 +4716,7 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -4369,7 +4729,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -4382,7 +4742,7 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -4395,7 +4755,7 @@
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -4408,7 +4768,7 @@
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -4421,7 +4781,7 @@
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -4434,7 +4794,7 @@
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -4447,7 +4807,7 @@
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -4460,7 +4820,7 @@
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -4473,7 +4833,7 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -4486,7 +4846,7 @@
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -4499,7 +4859,7 @@
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -4512,7 +4872,7 @@
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -4525,7 +4885,7 @@
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -4538,7 +4898,7 @@
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -4551,7 +4911,7 @@
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -4564,7 +4924,7 @@
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -4577,7 +4937,7 @@
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -4590,7 +4950,7 @@
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -4603,7 +4963,7 @@
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -4616,7 +4976,7 @@
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -4629,7 +4989,7 @@
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -4642,7 +5002,7 @@
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -4655,7 +5015,7 @@
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -4668,7 +5028,7 @@
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -4681,7 +5041,7 @@
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -4694,7 +5054,7 @@
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -4707,7 +5067,7 @@
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -4720,7 +5080,7 @@
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -4733,7 +5093,7 @@
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -4746,7 +5106,7 @@
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -4759,7 +5119,7 @@
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -4772,7 +5132,7 @@
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -4785,7 +5145,7 @@
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -4798,7 +5158,7 @@
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -4811,7 +5171,7 @@
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -4824,7 +5184,7 @@
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -4837,7 +5197,7 @@
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -4850,7 +5210,7 @@
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -4863,7 +5223,7 @@
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -4876,7 +5236,7 @@
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -4889,7 +5249,7 @@
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -4902,7 +5262,7 @@
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -4915,7 +5275,7 @@
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -4928,7 +5288,7 @@
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -4941,7 +5301,7 @@
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -4954,7 +5314,7 @@
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -4967,7 +5327,7 @@
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -4980,7 +5340,7 @@
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -4993,7 +5353,7 @@
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -5006,7 +5366,7 @@
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -5019,7 +5379,7 @@
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -5032,7 +5392,7 @@
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -5045,7 +5405,7 @@
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -5058,7 +5418,7 @@
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -5071,7 +5431,7 @@
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -5084,7 +5444,7 @@
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -5097,7 +5457,7 @@
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -5110,7 +5470,7 @@
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -5123,7 +5483,7 @@
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -5136,7 +5496,7 @@
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -5149,7 +5509,7 @@
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -5162,7 +5522,7 @@
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -5175,7 +5535,7 @@
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -5188,7 +5548,7 @@
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -5201,7 +5561,7 @@
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -5214,7 +5574,7 @@
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -5227,7 +5587,7 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -5240,7 +5600,7 @@
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -5253,7 +5613,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -5266,7 +5626,7 @@
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -5279,7 +5639,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -5292,7 +5652,7 @@
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -5305,7 +5665,7 @@
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -5318,7 +5678,7 @@
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -5331,7 +5691,7 @@
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -5344,7 +5704,7 @@
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -5357,7 +5717,7 @@
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -5370,7 +5730,7 @@
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -5383,7 +5743,7 @@
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -5396,7 +5756,7 @@
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -5409,7 +5769,7 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -5422,7 +5782,7 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -5435,7 +5795,7 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -5448,7 +5808,7 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -5461,7 +5821,7 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -5474,7 +5834,7 @@
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -5487,7 +5847,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -5500,7 +5860,7 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -5513,7 +5873,7 @@
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -5526,7 +5886,7 @@
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -5539,7 +5899,7 @@
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -5552,7 +5912,7 @@
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -5565,7 +5925,7 @@
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -5578,7 +5938,7 @@
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -5591,7 +5951,7 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -5604,7 +5964,7 @@
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -5617,7 +5977,7 @@
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -5630,7 +5990,7 @@
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -5643,7 +6003,7 @@
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -5656,7 +6016,7 @@
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -5669,7 +6029,7 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -5682,7 +6042,7 @@
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -5695,7 +6055,7 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -5708,7 +6068,7 @@
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -5721,7 +6081,7 @@
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -5734,7 +6094,7 @@
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -5747,7 +6107,7 @@
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -5760,7 +6120,7 @@
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -5773,7 +6133,7 @@
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -5786,7 +6146,7 @@
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -5799,7 +6159,7 @@
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -5812,7 +6172,7 @@
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -5825,7 +6185,7 @@
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -5838,7 +6198,7 @@
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -5851,7 +6211,7 @@
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -5864,7 +6224,7 @@
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -5877,7 +6237,7 @@
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -5890,7 +6250,7 @@
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -5903,7 +6263,7 @@
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -5916,7 +6276,7 @@
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -5929,7 +6289,7 @@
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -5942,7 +6302,7 @@
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -5955,7 +6315,7 @@
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -5968,7 +6328,7 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -5981,7 +6341,7 @@
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -5994,7 +6354,7 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -6007,7 +6367,7 @@
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -6020,7 +6380,7 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -6033,7 +6393,7 @@
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -6046,7 +6406,7 @@
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -6059,7 +6419,7 @@
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -6072,7 +6432,7 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -6085,7 +6445,7 @@
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -6098,7 +6458,7 @@
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -6111,7 +6471,7 @@
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -6124,7 +6484,7 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -6137,7 +6497,7 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -6150,7 +6510,7 @@
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -6163,7 +6523,7 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -6176,7 +6536,7 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -6189,7 +6549,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -6202,7 +6562,7 @@
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -6215,7 +6575,7 @@
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -6228,7 +6588,7 @@
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -6241,7 +6601,7 @@
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -6254,7 +6614,7 @@
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -6267,7 +6627,7 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -6280,7 +6640,7 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -6293,7 +6653,7 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -6306,7 +6666,7 @@
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -6319,7 +6679,7 @@
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -6332,7 +6692,7 @@
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -6345,7 +6705,7 @@
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -6358,7 +6718,7 @@
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -6371,7 +6731,7 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -6384,7 +6744,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -6397,7 +6757,7 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -6410,7 +6770,7 @@
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -6423,7 +6783,7 @@
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -6436,7 +6796,7 @@
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -6449,7 +6809,7 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -6462,7 +6822,7 @@
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -6475,7 +6835,7 @@
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -6488,7 +6848,7 @@
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -6501,7 +6861,7 @@
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -6514,7 +6874,7 @@
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -6527,7 +6887,7 @@
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -6540,7 +6900,7 @@
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -6553,7 +6913,7 @@
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -6566,7 +6926,7 @@
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -6579,7 +6939,7 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -6592,7 +6952,7 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -6605,7 +6965,7 @@
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -6618,7 +6978,7 @@
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -6631,7 +6991,7 @@
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -6644,7 +7004,7 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -6657,7 +7017,7 @@
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -6670,7 +7030,7 @@
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -6683,7 +7043,7 @@
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -6696,7 +7056,7 @@
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -6709,7 +7069,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -6722,7 +7082,7 @@
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -6735,7 +7095,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -6748,7 +7108,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -6761,7 +7121,7 @@
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -6774,7 +7134,7 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -6787,7 +7147,7 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -6800,7 +7160,7 @@
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -6813,7 +7173,7 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -6826,7 +7186,7 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -6839,7 +7199,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -6852,7 +7212,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -6865,7 +7225,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -6878,7 +7238,7 @@
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -6891,7 +7251,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -6904,7 +7264,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -6917,7 +7277,7 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -6930,7 +7290,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -6943,7 +7303,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -6956,7 +7316,7 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -6969,7 +7329,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -6982,7 +7342,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -6995,7 +7355,7 @@
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -7008,7 +7368,7 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -7021,7 +7381,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -7034,7 +7394,7 @@
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -7047,7 +7407,7 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -7060,7 +7420,7 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -7073,7 +7433,7 @@
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -7086,7 +7446,7 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -7099,7 +7459,7 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -7112,7 +7472,7 @@
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -7125,7 +7485,7 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -7138,7 +7498,7 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -7151,7 +7511,7 @@
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -7164,7 +7524,7 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -7177,7 +7537,7 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -7190,7 +7550,7 @@
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -7203,7 +7563,7 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -7216,7 +7576,7 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -7229,7 +7589,7 @@
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -7242,7 +7602,7 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -7255,7 +7615,7 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -7268,7 +7628,7 @@
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -7281,7 +7641,7 @@
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -7294,7 +7654,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -7307,7 +7667,7 @@
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -7320,7 +7680,7 @@
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -7333,7 +7693,7 @@
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -7346,7 +7706,7 @@
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -7359,7 +7719,7 @@
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -7372,7 +7732,7 @@
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -7385,7 +7745,7 @@
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -7398,7 +7758,7 @@
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -7411,7 +7771,7 @@
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -7424,7 +7784,7 @@
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -7437,7 +7797,7 @@
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -7450,7 +7810,7 @@
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -7463,7 +7823,7 @@
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -7476,7 +7836,7 @@
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -7489,7 +7849,7 @@
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -7502,7 +7862,7 @@
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -7515,7 +7875,7 @@
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -7528,7 +7888,7 @@
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -7541,7 +7901,7 @@
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -7554,7 +7914,7 @@
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -7567,7 +7927,7 @@
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -7580,7 +7940,7 @@
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -7593,7 +7953,7 @@
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -7606,7 +7966,7 @@
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -7619,7 +7979,7 @@
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -7632,7 +7992,7 @@
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -7645,7 +8005,7 @@
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -7658,7 +8018,7 @@
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -7671,7 +8031,7 @@
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -7684,7 +8044,7 @@
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -7697,7 +8057,7 @@
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -7710,7 +8070,7 @@
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -7723,7 +8083,7 @@
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -7736,7 +8096,7 @@
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -7749,7 +8109,7 @@
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -7762,7 +8122,7 @@
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -7775,7 +8135,7 @@
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -7788,7 +8148,7 @@
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -7801,7 +8161,7 @@
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -7814,7 +8174,7 @@
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -7827,7 +8187,7 @@
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -7840,7 +8200,7 @@
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -7853,7 +8213,7 @@
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -7866,7 +8226,7 @@
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -7879,7 +8239,7 @@
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -7892,7 +8252,7 @@
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -7905,7 +8265,7 @@
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -7918,7 +8278,7 @@
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -7931,7 +8291,7 @@
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -7944,7 +8304,7 @@
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -7957,7 +8317,7 @@
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -7970,7 +8330,7 @@
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -7983,7 +8343,7 @@
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -7996,7 +8356,7 @@
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -8009,7 +8369,7 @@
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -8022,7 +8382,7 @@
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -8035,7 +8395,7 @@
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -8048,7 +8408,7 @@
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -8061,7 +8421,7 @@
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -8074,7 +8434,7 @@
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -8087,7 +8447,7 @@
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -8100,7 +8460,7 @@
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -8113,7 +8473,7 @@
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -8126,7 +8486,7 @@
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -8139,7 +8499,7 @@
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -8152,7 +8512,7 @@
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -8165,7 +8525,7 @@
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -8178,7 +8538,7 @@
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -8191,7 +8551,7 @@
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -8204,7 +8564,7 @@
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -8217,7 +8577,7 @@
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -8230,7 +8590,7 @@
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -8243,7 +8603,7 @@
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -8256,7 +8616,7 @@
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -8269,7 +8629,7 @@
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -8282,7 +8642,7 @@
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -8295,7 +8655,7 @@
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -8308,7 +8668,7 @@
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -8321,7 +8681,7 @@
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -8334,7 +8694,7 @@
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -8347,7 +8707,7 @@
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -8360,7 +8720,7 @@
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -8373,7 +8733,7 @@
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -8386,7 +8746,7 @@
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -8399,7 +8759,7 @@
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -8412,7 +8772,7 @@
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -8425,7 +8785,7 @@
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -8438,7 +8798,7 @@
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -8451,7 +8811,7 @@
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -8464,7 +8824,7 @@
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -8477,7 +8837,7 @@
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -8490,7 +8850,7 @@
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -8503,7 +8863,7 @@
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -8516,7 +8876,7 @@
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -8529,7 +8889,7 @@
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -8542,7 +8902,7 @@
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -8555,7 +8915,7 @@
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -8568,7 +8928,7 @@
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -8581,7 +8941,7 @@
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -8594,7 +8954,7 @@
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -8607,7 +8967,7 @@
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -8620,7 +8980,7 @@
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -8633,7 +8993,7 @@
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -8646,7 +9006,7 @@
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -8659,7 +9019,7 @@
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -8672,7 +9032,7 @@
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -8685,7 +9045,7 @@
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -8698,7 +9058,7 @@
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -8711,7 +9071,7 @@
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -8724,7 +9084,7 @@
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -8737,7 +9097,7 @@
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -8750,7 +9110,7 @@
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -8763,7 +9123,7 @@
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -8776,7 +9136,7 @@
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -8789,7 +9149,7 @@
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -8802,7 +9162,7 @@
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -8815,7 +9175,7 @@
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -8828,7 +9188,7 @@
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -8841,7 +9201,7 @@
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -8854,7 +9214,7 @@
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -8867,7 +9227,7 @@
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -8880,7 +9240,7 @@
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -8893,7 +9253,7 @@
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -8906,7 +9266,7 @@
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -8919,7 +9279,7 @@
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -8932,7 +9292,7 @@
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -8945,7 +9305,7 @@
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -8958,7 +9318,7 @@
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -8971,7 +9331,7 @@
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -8984,7 +9344,7 @@
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -8997,7 +9357,7 @@
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -9010,7 +9370,7 @@
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -9023,7 +9383,7 @@
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -9036,7 +9396,7 @@
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -9049,7 +9409,7 @@
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -9062,7 +9422,7 @@
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -9075,7 +9435,7 @@
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -9088,7 +9448,7 @@
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -9101,7 +9461,7 @@
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -9114,7 +9474,7 @@
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -9127,7 +9487,7 @@
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -9140,7 +9500,7 @@
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -9153,7 +9513,7 @@
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -9166,7 +9526,7 @@
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -9179,7 +9539,7 @@
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -9192,7 +9552,7 @@
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -9205,7 +9565,7 @@
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -9218,7 +9578,7 @@
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -9231,7 +9591,7 @@
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -9244,7 +9604,7 @@
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -9257,7 +9617,7 @@
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -9270,7 +9630,7 @@
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -9283,7 +9643,7 @@
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -9296,7 +9656,7 @@
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -9309,7 +9669,7 @@
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -9322,7 +9682,7 @@
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -9335,7 +9695,7 @@
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -9348,7 +9708,7 @@
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -9361,7 +9721,7 @@
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -9374,7 +9734,7 @@
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -9387,7 +9747,7 @@
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -9400,7 +9760,7 @@
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -9413,7 +9773,7 @@
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -9426,7 +9786,7 @@
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -9439,7 +9799,7 @@
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -9452,7 +9812,7 @@
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -9465,7 +9825,7 @@
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -9478,7 +9838,7 @@
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -9491,7 +9851,7 @@
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -9504,7 +9864,7 @@
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -9517,7 +9877,7 @@
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -9530,7 +9890,7 @@
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -9543,7 +9903,7 @@
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -9556,7 +9916,7 @@
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -9569,7 +9929,7 @@
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -9582,7 +9942,7 @@
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -9595,7 +9955,7 @@
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -9608,7 +9968,7 @@
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -9621,7 +9981,7 @@
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -9634,7 +9994,7 @@
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -9647,7 +10007,7 @@
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -9660,7 +10020,7 @@
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -9673,7 +10033,7 @@
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -9686,7 +10046,7 @@
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -9699,7 +10059,7 @@
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -9712,7 +10072,7 @@
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -9725,7 +10085,7 @@
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -9738,7 +10098,7 @@
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -9751,7 +10111,7 @@
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -9764,7 +10124,7 @@
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -9777,7 +10137,7 @@
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -9790,7 +10150,7 @@
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -9803,7 +10163,7 @@
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -9816,7 +10176,7 @@
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -9829,7 +10189,7 @@
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -9842,7 +10202,7 @@
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -9855,7 +10215,7 @@
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -9868,7 +10228,7 @@
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -9881,7 +10241,7 @@
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -9894,7 +10254,7 @@
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -9907,7 +10267,7 @@
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -9920,7 +10280,7 @@
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -9933,7 +10293,7 @@
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -9946,7 +10306,7 @@
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -9959,7 +10319,7 @@
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -9972,7 +10332,7 @@
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -9985,7 +10345,7 @@
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -9998,7 +10358,7 @@
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -10011,7 +10371,7 @@
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -10024,7 +10384,7 @@
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -10037,7 +10397,7 @@
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -10050,7 +10410,7 @@
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -10063,7 +10423,7 @@
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -10076,7 +10436,7 @@
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -10089,7 +10449,7 @@
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -10102,7 +10462,7 @@
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -10115,7 +10475,7 @@
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -10128,7 +10488,7 @@
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -10141,7 +10501,7 @@
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -10154,7 +10514,7 @@
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -10167,7 +10527,7 @@
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -10180,7 +10540,7 @@
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -10193,7 +10553,7 @@
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -10206,7 +10566,7 @@
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -10219,7 +10579,7 @@
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -10232,7 +10592,7 @@
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -10245,7 +10605,7 @@
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -10258,7 +10618,7 @@
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -10271,7 +10631,7 @@
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -10284,7 +10644,7 @@
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -10297,7 +10657,7 @@
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -10310,7 +10670,7 @@
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -10323,7 +10683,7 @@
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -10336,7 +10696,7 @@
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -10349,7 +10709,7 @@
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -10362,7 +10722,7 @@
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -10375,7 +10735,7 @@
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -10388,7 +10748,7 @@
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -10401,7 +10761,7 @@
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -10414,7 +10774,7 @@
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -10427,7 +10787,7 @@
       <c r="J749" s="2"/>
       <c r="K749" s="2"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -10440,7 +10800,7 @@
       <c r="J750" s="2"/>
       <c r="K750" s="2"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -10453,7 +10813,7 @@
       <c r="J751" s="2"/>
       <c r="K751" s="2"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -10466,7 +10826,7 @@
       <c r="J752" s="2"/>
       <c r="K752" s="2"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -10479,7 +10839,7 @@
       <c r="J753" s="2"/>
       <c r="K753" s="2"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -10492,7 +10852,7 @@
       <c r="J754" s="2"/>
       <c r="K754" s="2"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -10505,7 +10865,7 @@
       <c r="J755" s="2"/>
       <c r="K755" s="2"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -10518,7 +10878,7 @@
       <c r="J756" s="2"/>
       <c r="K756" s="2"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -10531,7 +10891,7 @@
       <c r="J757" s="2"/>
       <c r="K757" s="2"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -10544,7 +10904,7 @@
       <c r="J758" s="2"/>
       <c r="K758" s="2"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -10557,7 +10917,7 @@
       <c r="J759" s="2"/>
       <c r="K759" s="2"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -10570,7 +10930,7 @@
       <c r="J760" s="2"/>
       <c r="K760" s="2"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -10583,7 +10943,7 @@
       <c r="J761" s="2"/>
       <c r="K761" s="2"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -10596,7 +10956,7 @@
       <c r="J762" s="2"/>
       <c r="K762" s="2"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -10609,7 +10969,7 @@
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -10622,7 +10982,7 @@
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -10635,7 +10995,7 @@
       <c r="J765" s="2"/>
       <c r="K765" s="2"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -10648,7 +11008,7 @@
       <c r="J766" s="2"/>
       <c r="K766" s="2"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -10661,7 +11021,7 @@
       <c r="J767" s="2"/>
       <c r="K767" s="2"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -10674,7 +11034,7 @@
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -10687,7 +11047,7 @@
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -10700,7 +11060,7 @@
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -10713,7 +11073,7 @@
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -10726,7 +11086,7 @@
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -10739,7 +11099,7 @@
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -10752,7 +11112,7 @@
       <c r="J774" s="2"/>
       <c r="K774" s="2"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -10765,7 +11125,7 @@
       <c r="J775" s="2"/>
       <c r="K775" s="2"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -10778,7 +11138,7 @@
       <c r="J776" s="2"/>
       <c r="K776" s="2"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -10791,7 +11151,7 @@
       <c r="J777" s="2"/>
       <c r="K777" s="2"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -10804,7 +11164,7 @@
       <c r="J778" s="2"/>
       <c r="K778" s="2"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -10817,7 +11177,7 @@
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -10830,7 +11190,7 @@
       <c r="J780" s="2"/>
       <c r="K780" s="2"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -10843,7 +11203,7 @@
       <c r="J781" s="2"/>
       <c r="K781" s="2"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -10856,7 +11216,7 @@
       <c r="J782" s="2"/>
       <c r="K782" s="2"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -10869,7 +11229,7 @@
       <c r="J783" s="2"/>
       <c r="K783" s="2"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -10882,7 +11242,7 @@
       <c r="J784" s="2"/>
       <c r="K784" s="2"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -10895,7 +11255,7 @@
       <c r="J785" s="2"/>
       <c r="K785" s="2"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -10908,7 +11268,7 @@
       <c r="J786" s="2"/>
       <c r="K786" s="2"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -10921,7 +11281,7 @@
       <c r="J787" s="2"/>
       <c r="K787" s="2"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -10934,7 +11294,7 @@
       <c r="J788" s="2"/>
       <c r="K788" s="2"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -10947,7 +11307,7 @@
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -10960,7 +11320,7 @@
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -10973,7 +11333,7 @@
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -10986,7 +11346,7 @@
       <c r="J792" s="2"/>
       <c r="K792" s="2"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -10999,7 +11359,7 @@
       <c r="J793" s="2"/>
       <c r="K793" s="2"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -11012,7 +11372,7 @@
       <c r="J794" s="2"/>
       <c r="K794" s="2"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -11025,7 +11385,7 @@
       <c r="J795" s="2"/>
       <c r="K795" s="2"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -11038,7 +11398,7 @@
       <c r="J796" s="2"/>
       <c r="K796" s="2"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -11051,7 +11411,7 @@
       <c r="J797" s="2"/>
       <c r="K797" s="2"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -11064,7 +11424,7 @@
       <c r="J798" s="2"/>
       <c r="K798" s="2"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -11077,7 +11437,7 @@
       <c r="J799" s="2"/>
       <c r="K799" s="2"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -11090,7 +11450,7 @@
       <c r="J800" s="2"/>
       <c r="K800" s="2"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -11103,7 +11463,7 @@
       <c r="J801" s="2"/>
       <c r="K801" s="2"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -11116,7 +11476,7 @@
       <c r="J802" s="2"/>
       <c r="K802" s="2"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -11129,7 +11489,7 @@
       <c r="J803" s="2"/>
       <c r="K803" s="2"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -11142,7 +11502,7 @@
       <c r="J804" s="2"/>
       <c r="K804" s="2"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -11155,7 +11515,7 @@
       <c r="J805" s="2"/>
       <c r="K805" s="2"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -11168,7 +11528,7 @@
       <c r="J806" s="2"/>
       <c r="K806" s="2"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -11181,7 +11541,7 @@
       <c r="J807" s="2"/>
       <c r="K807" s="2"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -11194,7 +11554,7 @@
       <c r="J808" s="2"/>
       <c r="K808" s="2"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -11207,7 +11567,7 @@
       <c r="J809" s="2"/>
       <c r="K809" s="2"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -11220,7 +11580,7 @@
       <c r="J810" s="2"/>
       <c r="K810" s="2"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -11233,7 +11593,7 @@
       <c r="J811" s="2"/>
       <c r="K811" s="2"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -11246,7 +11606,7 @@
       <c r="J812" s="2"/>
       <c r="K812" s="2"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -11259,7 +11619,7 @@
       <c r="J813" s="2"/>
       <c r="K813" s="2"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -11272,7 +11632,7 @@
       <c r="J814" s="2"/>
       <c r="K814" s="2"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -11285,7 +11645,7 @@
       <c r="J815" s="2"/>
       <c r="K815" s="2"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -11298,7 +11658,7 @@
       <c r="J816" s="2"/>
       <c r="K816" s="2"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -11311,7 +11671,7 @@
       <c r="J817" s="2"/>
       <c r="K817" s="2"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -11324,7 +11684,7 @@
       <c r="J818" s="2"/>
       <c r="K818" s="2"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -11337,7 +11697,7 @@
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -11350,7 +11710,7 @@
       <c r="J820" s="2"/>
       <c r="K820" s="2"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -11363,7 +11723,7 @@
       <c r="J821" s="2"/>
       <c r="K821" s="2"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -11376,7 +11736,7 @@
       <c r="J822" s="2"/>
       <c r="K822" s="2"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -11389,7 +11749,7 @@
       <c r="J823" s="2"/>
       <c r="K823" s="2"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -11402,7 +11762,7 @@
       <c r="J824" s="2"/>
       <c r="K824" s="2"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -11415,7 +11775,7 @@
       <c r="J825" s="2"/>
       <c r="K825" s="2"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -11428,7 +11788,7 @@
       <c r="J826" s="2"/>
       <c r="K826" s="2"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -11441,7 +11801,7 @@
       <c r="J827" s="2"/>
       <c r="K827" s="2"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -11454,7 +11814,7 @@
       <c r="J828" s="2"/>
       <c r="K828" s="2"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -11467,7 +11827,7 @@
       <c r="J829" s="2"/>
       <c r="K829" s="2"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -11480,7 +11840,7 @@
       <c r="J830" s="2"/>
       <c r="K830" s="2"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -11493,7 +11853,7 @@
       <c r="J831" s="2"/>
       <c r="K831" s="2"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -11506,7 +11866,7 @@
       <c r="J832" s="2"/>
       <c r="K832" s="2"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -11519,7 +11879,7 @@
       <c r="J833" s="2"/>
       <c r="K833" s="2"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -11532,7 +11892,7 @@
       <c r="J834" s="2"/>
       <c r="K834" s="2"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -11545,7 +11905,7 @@
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -11558,7 +11918,7 @@
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -11571,7 +11931,7 @@
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -11584,7 +11944,7 @@
       <c r="J838" s="2"/>
       <c r="K838" s="2"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -11597,7 +11957,7 @@
       <c r="J839" s="2"/>
       <c r="K839" s="2"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -11610,7 +11970,7 @@
       <c r="J840" s="2"/>
       <c r="K840" s="2"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -11623,7 +11983,7 @@
       <c r="J841" s="2"/>
       <c r="K841" s="2"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -11636,7 +11996,7 @@
       <c r="J842" s="2"/>
       <c r="K842" s="2"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -11649,7 +12009,7 @@
       <c r="J843" s="2"/>
       <c r="K843" s="2"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -11662,7 +12022,7 @@
       <c r="J844" s="2"/>
       <c r="K844" s="2"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -11675,7 +12035,7 @@
       <c r="J845" s="2"/>
       <c r="K845" s="2"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -11688,7 +12048,7 @@
       <c r="J846" s="2"/>
       <c r="K846" s="2"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -11701,7 +12061,7 @@
       <c r="J847" s="2"/>
       <c r="K847" s="2"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -11714,7 +12074,7 @@
       <c r="J848" s="2"/>
       <c r="K848" s="2"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -11727,7 +12087,7 @@
       <c r="J849" s="2"/>
       <c r="K849" s="2"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -11740,7 +12100,7 @@
       <c r="J850" s="2"/>
       <c r="K850" s="2"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -11753,7 +12113,7 @@
       <c r="J851" s="2"/>
       <c r="K851" s="2"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -11766,7 +12126,7 @@
       <c r="J852" s="2"/>
       <c r="K852" s="2"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -11779,7 +12139,7 @@
       <c r="J853" s="2"/>
       <c r="K853" s="2"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -11792,7 +12152,7 @@
       <c r="J854" s="2"/>
       <c r="K854" s="2"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -11805,7 +12165,7 @@
       <c r="J855" s="2"/>
       <c r="K855" s="2"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -11818,7 +12178,7 @@
       <c r="J856" s="2"/>
       <c r="K856" s="2"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -11831,7 +12191,7 @@
       <c r="J857" s="2"/>
       <c r="K857" s="2"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -11844,7 +12204,7 @@
       <c r="J858" s="2"/>
       <c r="K858" s="2"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -11857,7 +12217,7 @@
       <c r="J859" s="2"/>
       <c r="K859" s="2"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -11870,7 +12230,7 @@
       <c r="J860" s="2"/>
       <c r="K860" s="2"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -11883,7 +12243,7 @@
       <c r="J861" s="2"/>
       <c r="K861" s="2"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -11896,7 +12256,7 @@
       <c r="J862" s="2"/>
       <c r="K862" s="2"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -11909,7 +12269,7 @@
       <c r="J863" s="2"/>
       <c r="K863" s="2"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -11922,7 +12282,7 @@
       <c r="J864" s="2"/>
       <c r="K864" s="2"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -11935,7 +12295,7 @@
       <c r="J865" s="2"/>
       <c r="K865" s="2"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -11948,7 +12308,7 @@
       <c r="J866" s="2"/>
       <c r="K866" s="2"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -11961,7 +12321,7 @@
       <c r="J867" s="2"/>
       <c r="K867" s="2"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -11974,7 +12334,7 @@
       <c r="J868" s="2"/>
       <c r="K868" s="2"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -11987,7 +12347,7 @@
       <c r="J869" s="2"/>
       <c r="K869" s="2"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -12000,7 +12360,7 @@
       <c r="J870" s="2"/>
       <c r="K870" s="2"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -12013,7 +12373,7 @@
       <c r="J871" s="2"/>
       <c r="K871" s="2"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -12026,7 +12386,7 @@
       <c r="J872" s="2"/>
       <c r="K872" s="2"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -12039,7 +12399,7 @@
       <c r="J873" s="2"/>
       <c r="K873" s="2"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -12052,7 +12412,7 @@
       <c r="J874" s="2"/>
       <c r="K874" s="2"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -12065,7 +12425,7 @@
       <c r="J875" s="2"/>
       <c r="K875" s="2"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -12078,7 +12438,7 @@
       <c r="J876" s="2"/>
       <c r="K876" s="2"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -12091,7 +12451,7 @@
       <c r="J877" s="2"/>
       <c r="K877" s="2"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -12104,7 +12464,7 @@
       <c r="J878" s="2"/>
       <c r="K878" s="2"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -12117,7 +12477,7 @@
       <c r="J879" s="2"/>
       <c r="K879" s="2"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -12130,7 +12490,7 @@
       <c r="J880" s="2"/>
       <c r="K880" s="2"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -12143,7 +12503,7 @@
       <c r="J881" s="2"/>
       <c r="K881" s="2"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -12156,7 +12516,7 @@
       <c r="J882" s="2"/>
       <c r="K882" s="2"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -12169,7 +12529,7 @@
       <c r="J883" s="2"/>
       <c r="K883" s="2"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -12182,7 +12542,7 @@
       <c r="J884" s="2"/>
       <c r="K884" s="2"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -12195,7 +12555,7 @@
       <c r="J885" s="2"/>
       <c r="K885" s="2"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -12208,7 +12568,7 @@
       <c r="J886" s="2"/>
       <c r="K886" s="2"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -12221,7 +12581,7 @@
       <c r="J887" s="2"/>
       <c r="K887" s="2"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -12234,7 +12594,7 @@
       <c r="J888" s="2"/>
       <c r="K888" s="2"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -12247,7 +12607,7 @@
       <c r="J889" s="2"/>
       <c r="K889" s="2"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -12260,7 +12620,7 @@
       <c r="J890" s="2"/>
       <c r="K890" s="2"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -12273,7 +12633,7 @@
       <c r="J891" s="2"/>
       <c r="K891" s="2"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -12286,7 +12646,7 @@
       <c r="J892" s="2"/>
       <c r="K892" s="2"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -12299,7 +12659,7 @@
       <c r="J893" s="2"/>
       <c r="K893" s="2"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -12312,7 +12672,7 @@
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -12325,7 +12685,7 @@
       <c r="J895" s="2"/>
       <c r="K895" s="2"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -12338,7 +12698,7 @@
       <c r="J896" s="2"/>
       <c r="K896" s="2"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -12351,7 +12711,7 @@
       <c r="J897" s="2"/>
       <c r="K897" s="2"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -12364,7 +12724,7 @@
       <c r="J898" s="2"/>
       <c r="K898" s="2"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -12377,7 +12737,7 @@
       <c r="J899" s="2"/>
       <c r="K899" s="2"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -12390,7 +12750,7 @@
       <c r="J900" s="2"/>
       <c r="K900" s="2"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -12403,7 +12763,7 @@
       <c r="J901" s="2"/>
       <c r="K901" s="2"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -12416,7 +12776,7 @@
       <c r="J902" s="2"/>
       <c r="K902" s="2"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -12429,7 +12789,7 @@
       <c r="J903" s="2"/>
       <c r="K903" s="2"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -12442,7 +12802,7 @@
       <c r="J904" s="2"/>
       <c r="K904" s="2"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -12455,7 +12815,7 @@
       <c r="J905" s="2"/>
       <c r="K905" s="2"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -12468,7 +12828,7 @@
       <c r="J906" s="2"/>
       <c r="K906" s="2"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -12481,7 +12841,7 @@
       <c r="J907" s="2"/>
       <c r="K907" s="2"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -12494,7 +12854,7 @@
       <c r="J908" s="2"/>
       <c r="K908" s="2"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -12507,7 +12867,7 @@
       <c r="J909" s="2"/>
       <c r="K909" s="2"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -12520,7 +12880,7 @@
       <c r="J910" s="2"/>
       <c r="K910" s="2"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -12533,7 +12893,7 @@
       <c r="J911" s="2"/>
       <c r="K911" s="2"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -12546,7 +12906,7 @@
       <c r="J912" s="2"/>
       <c r="K912" s="2"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -12559,7 +12919,7 @@
       <c r="J913" s="2"/>
       <c r="K913" s="2"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -12572,7 +12932,7 @@
       <c r="J914" s="2"/>
       <c r="K914" s="2"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -12585,7 +12945,7 @@
       <c r="J915" s="2"/>
       <c r="K915" s="2"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -12598,7 +12958,7 @@
       <c r="J916" s="2"/>
       <c r="K916" s="2"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -12611,7 +12971,7 @@
       <c r="J917" s="2"/>
       <c r="K917" s="2"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -12624,7 +12984,7 @@
       <c r="J918" s="2"/>
       <c r="K918" s="2"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -12637,7 +12997,7 @@
       <c r="J919" s="2"/>
       <c r="K919" s="2"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -12650,7 +13010,7 @@
       <c r="J920" s="2"/>
       <c r="K920" s="2"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -12663,7 +13023,7 @@
       <c r="J921" s="2"/>
       <c r="K921" s="2"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -12676,7 +13036,7 @@
       <c r="J922" s="2"/>
       <c r="K922" s="2"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -12689,7 +13049,7 @@
       <c r="J923" s="2"/>
       <c r="K923" s="2"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -12702,7 +13062,7 @@
       <c r="J924" s="2"/>
       <c r="K924" s="2"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -12715,7 +13075,7 @@
       <c r="J925" s="2"/>
       <c r="K925" s="2"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -12728,7 +13088,7 @@
       <c r="J926" s="2"/>
       <c r="K926" s="2"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -12741,7 +13101,7 @@
       <c r="J927" s="2"/>
       <c r="K927" s="2"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -12754,7 +13114,7 @@
       <c r="J928" s="2"/>
       <c r="K928" s="2"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -12767,7 +13127,7 @@
       <c r="J929" s="2"/>
       <c r="K929" s="2"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -12780,7 +13140,7 @@
       <c r="J930" s="2"/>
       <c r="K930" s="2"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -12793,7 +13153,7 @@
       <c r="J931" s="2"/>
       <c r="K931" s="2"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -12806,7 +13166,7 @@
       <c r="J932" s="2"/>
       <c r="K932" s="2"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -12819,7 +13179,7 @@
       <c r="J933" s="2"/>
       <c r="K933" s="2"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -12832,7 +13192,7 @@
       <c r="J934" s="2"/>
       <c r="K934" s="2"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -12845,7 +13205,7 @@
       <c r="J935" s="2"/>
       <c r="K935" s="2"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -12858,7 +13218,7 @@
       <c r="J936" s="2"/>
       <c r="K936" s="2"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -12871,7 +13231,7 @@
       <c r="J937" s="2"/>
       <c r="K937" s="2"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -12884,7 +13244,7 @@
       <c r="J938" s="2"/>
       <c r="K938" s="2"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -12897,7 +13257,7 @@
       <c r="J939" s="2"/>
       <c r="K939" s="2"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -12910,7 +13270,7 @@
       <c r="J940" s="2"/>
       <c r="K940" s="2"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -12923,7 +13283,7 @@
       <c r="J941" s="2"/>
       <c r="K941" s="2"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -12936,7 +13296,7 @@
       <c r="J942" s="2"/>
       <c r="K942" s="2"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -12949,7 +13309,7 @@
       <c r="J943" s="2"/>
       <c r="K943" s="2"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -12962,7 +13322,7 @@
       <c r="J944" s="2"/>
       <c r="K944" s="2"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -12975,7 +13335,7 @@
       <c r="J945" s="2"/>
       <c r="K945" s="2"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -12988,7 +13348,7 @@
       <c r="J946" s="2"/>
       <c r="K946" s="2"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -13001,7 +13361,7 @@
       <c r="J947" s="2"/>
       <c r="K947" s="2"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -13014,7 +13374,7 @@
       <c r="J948" s="2"/>
       <c r="K948" s="2"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -13027,7 +13387,7 @@
       <c r="J949" s="2"/>
       <c r="K949" s="2"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -13040,7 +13400,7 @@
       <c r="J950" s="2"/>
       <c r="K950" s="2"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -13053,7 +13413,7 @@
       <c r="J951" s="2"/>
       <c r="K951" s="2"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -13066,7 +13426,7 @@
       <c r="J952" s="2"/>
       <c r="K952" s="2"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -13079,7 +13439,7 @@
       <c r="J953" s="2"/>
       <c r="K953" s="2"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -13092,7 +13452,7 @@
       <c r="J954" s="2"/>
       <c r="K954" s="2"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -13105,7 +13465,7 @@
       <c r="J955" s="2"/>
       <c r="K955" s="2"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -13118,7 +13478,7 @@
       <c r="J956" s="2"/>
       <c r="K956" s="2"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -13131,7 +13491,7 @@
       <c r="J957" s="2"/>
       <c r="K957" s="2"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -13144,7 +13504,7 @@
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -13157,7 +13517,7 @@
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -13170,7 +13530,7 @@
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -13183,7 +13543,7 @@
       <c r="J961" s="2"/>
       <c r="K961" s="2"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -13196,7 +13556,7 @@
       <c r="J962" s="2"/>
       <c r="K962" s="2"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -13209,7 +13569,7 @@
       <c r="J963" s="2"/>
       <c r="K963" s="2"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -13222,7 +13582,7 @@
       <c r="J964" s="2"/>
       <c r="K964" s="2"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -13235,7 +13595,7 @@
       <c r="J965" s="2"/>
       <c r="K965" s="2"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -13248,7 +13608,7 @@
       <c r="J966" s="2"/>
       <c r="K966" s="2"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -13261,7 +13621,7 @@
       <c r="J967" s="2"/>
       <c r="K967" s="2"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -13274,7 +13634,7 @@
       <c r="J968" s="2"/>
       <c r="K968" s="2"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -13287,7 +13647,7 @@
       <c r="J969" s="2"/>
       <c r="K969" s="2"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -13300,7 +13660,7 @@
       <c r="J970" s="2"/>
       <c r="K970" s="2"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -13313,7 +13673,7 @@
       <c r="J971" s="2"/>
       <c r="K971" s="2"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -13326,7 +13686,7 @@
       <c r="J972" s="2"/>
       <c r="K972" s="2"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -13339,7 +13699,7 @@
       <c r="J973" s="2"/>
       <c r="K973" s="2"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -13352,7 +13712,7 @@
       <c r="J974" s="2"/>
       <c r="K974" s="2"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -13365,7 +13725,7 @@
       <c r="J975" s="2"/>
       <c r="K975" s="2"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -13378,7 +13738,7 @@
       <c r="J976" s="2"/>
       <c r="K976" s="2"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -13391,7 +13751,7 @@
       <c r="J977" s="2"/>
       <c r="K977" s="2"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -13404,7 +13764,7 @@
       <c r="J978" s="2"/>
       <c r="K978" s="2"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -13417,7 +13777,7 @@
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -13430,7 +13790,7 @@
       <c r="J980" s="2"/>
       <c r="K980" s="2"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -13443,7 +13803,7 @@
       <c r="J981" s="2"/>
       <c r="K981" s="2"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -13456,7 +13816,7 @@
       <c r="J982" s="2"/>
       <c r="K982" s="2"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -13469,7 +13829,7 @@
       <c r="J983" s="2"/>
       <c r="K983" s="2"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -13482,7 +13842,7 @@
       <c r="J984" s="2"/>
       <c r="K984" s="2"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -13495,7 +13855,7 @@
       <c r="J985" s="2"/>
       <c r="K985" s="2"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -13508,7 +13868,7 @@
       <c r="J986" s="2"/>
       <c r="K986" s="2"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -13521,7 +13881,7 @@
       <c r="J987" s="2"/>
       <c r="K987" s="2"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -13534,7 +13894,7 @@
       <c r="J988" s="2"/>
       <c r="K988" s="2"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -13547,7 +13907,7 @@
       <c r="J989" s="2"/>
       <c r="K989" s="2"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -13560,7 +13920,7 @@
       <c r="J990" s="2"/>
       <c r="K990" s="2"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -13573,7 +13933,7 @@
       <c r="J991" s="2"/>
       <c r="K991" s="2"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -13586,7 +13946,7 @@
       <c r="J992" s="2"/>
       <c r="K992" s="2"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -13599,7 +13959,7 @@
       <c r="J993" s="2"/>
       <c r="K993" s="2"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -13612,7 +13972,7 @@
       <c r="J994" s="2"/>
       <c r="K994" s="2"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -13625,7 +13985,7 @@
       <c r="J995" s="2"/>
       <c r="K995" s="2"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -13638,7 +13998,7 @@
       <c r="J996" s="2"/>
       <c r="K996" s="2"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -13651,7 +14011,7 @@
       <c r="J997" s="2"/>
       <c r="K997" s="2"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -13665,6 +14025,7 @@
       <c r="K998" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Localization/SMILocalization.xlsx
+++ b/Assets/Resources/Localization/SMILocalization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>Key</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Close</t>
-  </si>
-  <si>
-    <t>XXXX</t>
   </si>
   <si>
     <t>COMMENT_NEGATIVE</t>
@@ -396,6 +393,24 @@
   </si>
   <si>
     <t>Informeren</t>
+  </si>
+  <si>
+    <t>Pagina {0}</t>
+  </si>
+  <si>
+    <t>Naburig</t>
+  </si>
+  <si>
+    <t>Nabij</t>
+  </si>
+  <si>
+    <t>Uitgang</t>
+  </si>
+  <si>
+    <t>Voorgaand</t>
+  </si>
+  <si>
+    <t>Vrienden</t>
   </si>
 </sst>
 </file>
@@ -734,7 +749,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -913,7 +928,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -926,13 +941,13 @@
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -945,13 +960,13 @@
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -964,13 +979,13 @@
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -983,13 +998,13 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1002,13 +1017,13 @@
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1021,13 +1036,13 @@
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1040,13 +1055,13 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1059,13 +1074,13 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1078,13 +1093,13 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1097,13 +1112,13 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1116,13 +1131,13 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1135,13 +1150,13 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1154,13 +1169,13 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1173,13 +1188,13 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1192,13 +1207,13 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1211,13 +1226,13 @@
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1230,13 +1245,13 @@
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1264,13 +1279,13 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1283,13 +1298,13 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1302,13 +1317,13 @@
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1321,13 +1336,13 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1340,13 +1355,13 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1359,13 +1374,13 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1378,13 +1393,13 @@
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1397,13 +1412,13 @@
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1416,13 +1431,13 @@
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1435,13 +1450,13 @@
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1454,13 +1469,13 @@
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1473,13 +1488,13 @@
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1492,13 +1507,13 @@
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1511,13 +1526,13 @@
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1530,13 +1545,13 @@
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1549,13 +1564,13 @@
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1568,13 +1583,13 @@
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1587,13 +1602,13 @@
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1606,13 +1621,13 @@
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1625,13 +1640,13 @@
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1644,13 +1659,13 @@
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>

--- a/Assets/Resources/Localization/SMILocalization.xlsx
+++ b/Assets/Resources/Localization/SMILocalization.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\Projects\RAGE\SpaceMods\Assets\Resources\Localization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="StringLocalizations" sheetId="1" r:id="rId1"/>
@@ -22,9 +17,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>Key</t>
-  </si>
-  <si>
-    <t>en-gb</t>
   </si>
   <si>
     <t>nl</t>
@@ -412,6 +404,9 @@
   <si>
     <t>Vrienden</t>
   </si>
+  <si>
+    <t>en</t>
+  </si>
 </sst>
 </file>
 
@@ -457,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -465,6 +460,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,7 +735,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,34 +747,34 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" customWidth="1"/>
-    <col min="12" max="26" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -787,15 +785,15 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -806,15 +804,15 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -825,15 +823,15 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -844,15 +842,15 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -863,15 +861,15 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -882,15 +880,15 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -901,15 +899,15 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -920,15 +918,15 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -939,15 +937,15 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -958,15 +956,15 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -977,15 +975,15 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -996,15 +994,15 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1015,15 +1013,15 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1034,15 +1032,15 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1053,15 +1051,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1072,15 +1070,15 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1091,15 +1089,15 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1110,15 +1108,15 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1129,15 +1127,15 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1148,15 +1146,15 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1167,15 +1165,15 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1186,15 +1184,15 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1205,15 +1203,15 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1224,15 +1222,15 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1243,15 +1241,15 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1277,15 +1275,15 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1296,15 +1294,15 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1315,15 +1313,15 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1334,15 +1332,15 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1353,15 +1351,15 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1372,15 +1370,15 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1391,15 +1389,15 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1410,15 +1408,15 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1429,15 +1427,15 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1448,15 +1446,15 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1467,15 +1465,15 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1486,15 +1484,15 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1505,15 +1503,15 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1524,15 +1522,15 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1543,15 +1541,15 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1562,15 +1560,15 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1581,15 +1579,15 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1600,15 +1598,15 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1619,15 +1617,15 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1638,15 +1636,15 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1657,15 +1655,15 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1676,7 +1674,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1689,7 +1687,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1702,7 +1700,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1715,7 +1713,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1728,7 +1726,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1741,7 +1739,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1754,7 +1752,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1767,7 +1765,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1780,7 +1778,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1793,7 +1791,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1806,7 +1804,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1819,7 +1817,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1832,7 +1830,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1845,7 +1843,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1858,7 +1856,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1871,7 +1869,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1884,7 +1882,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1897,7 +1895,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1910,7 +1908,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1923,7 +1921,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1936,7 +1934,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1949,7 +1947,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1962,7 +1960,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1975,7 +1973,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1988,7 +1986,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2001,7 +1999,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2014,7 +2012,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2027,7 +2025,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2040,7 +2038,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2053,7 +2051,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2066,7 +2064,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2079,7 +2077,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2092,7 +2090,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2105,7 +2103,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2118,7 +2116,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2131,7 +2129,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2144,7 +2142,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2157,7 +2155,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2170,7 +2168,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2183,7 +2181,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2196,7 +2194,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2209,7 +2207,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2222,7 +2220,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2235,7 +2233,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2248,7 +2246,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2261,7 +2259,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2274,7 +2272,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2287,7 +2285,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2300,7 +2298,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2313,7 +2311,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2326,7 +2324,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2339,7 +2337,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2352,7 +2350,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2365,7 +2363,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2378,7 +2376,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2391,7 +2389,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2404,7 +2402,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2417,7 +2415,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2430,7 +2428,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2443,7 +2441,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2456,7 +2454,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2469,7 +2467,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2482,7 +2480,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2495,7 +2493,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2508,7 +2506,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2521,7 +2519,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2534,7 +2532,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2547,7 +2545,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2560,7 +2558,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2573,7 +2571,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2586,7 +2584,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2599,7 +2597,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2612,7 +2610,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2625,7 +2623,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2638,7 +2636,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2651,7 +2649,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2664,7 +2662,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2677,7 +2675,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2690,7 +2688,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2703,7 +2701,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2716,7 +2714,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2729,7 +2727,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2742,7 +2740,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2755,7 +2753,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2768,7 +2766,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2781,7 +2779,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2794,7 +2792,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2807,7 +2805,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2820,7 +2818,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2833,7 +2831,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2846,7 +2844,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2859,7 +2857,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2872,7 +2870,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2885,7 +2883,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2898,7 +2896,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2911,7 +2909,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2924,7 +2922,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2937,7 +2935,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2950,7 +2948,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2963,7 +2961,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2976,7 +2974,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2989,7 +2987,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3002,7 +3000,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3015,7 +3013,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3028,7 +3026,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3041,7 +3039,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3054,7 +3052,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3067,7 +3065,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3080,7 +3078,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3093,7 +3091,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3106,7 +3104,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3119,7 +3117,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3132,7 +3130,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3145,7 +3143,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3158,7 +3156,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3171,7 +3169,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3184,7 +3182,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3197,7 +3195,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3210,7 +3208,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3223,7 +3221,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3236,7 +3234,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3249,7 +3247,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3262,7 +3260,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3275,7 +3273,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3288,7 +3286,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3301,7 +3299,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3314,7 +3312,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3327,7 +3325,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3340,7 +3338,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3353,7 +3351,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3366,7 +3364,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3379,7 +3377,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3392,7 +3390,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3405,7 +3403,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3418,7 +3416,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3431,7 +3429,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3444,7 +3442,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3457,7 +3455,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3470,7 +3468,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3483,7 +3481,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3496,7 +3494,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3509,7 +3507,7 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3522,7 +3520,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3535,7 +3533,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3548,7 +3546,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3561,7 +3559,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3574,7 +3572,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3587,7 +3585,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3600,7 +3598,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3613,7 +3611,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3626,7 +3624,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3639,7 +3637,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3652,7 +3650,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3665,7 +3663,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3678,7 +3676,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3691,7 +3689,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3704,7 +3702,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3717,7 +3715,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3730,7 +3728,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3743,7 +3741,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3756,7 +3754,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3769,7 +3767,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3782,7 +3780,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3795,7 +3793,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3808,7 +3806,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3821,7 +3819,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3834,7 +3832,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3847,7 +3845,7 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3860,7 +3858,7 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3873,7 +3871,7 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3886,7 +3884,7 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3899,7 +3897,7 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3912,7 +3910,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3925,7 +3923,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3938,7 +3936,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3951,7 +3949,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3964,7 +3962,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -3977,7 +3975,7 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -3990,7 +3988,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -4003,7 +4001,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -4016,7 +4014,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -4029,7 +4027,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -4042,7 +4040,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -4055,7 +4053,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4068,7 +4066,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -4081,7 +4079,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -4094,7 +4092,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -4107,7 +4105,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -4120,7 +4118,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -4133,7 +4131,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -4146,7 +4144,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -4159,7 +4157,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -4172,7 +4170,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -4185,7 +4183,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -4198,7 +4196,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -4211,7 +4209,7 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -4224,7 +4222,7 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -4237,7 +4235,7 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -4250,7 +4248,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -4263,7 +4261,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -4276,7 +4274,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -4289,7 +4287,7 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -4302,7 +4300,7 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -4315,7 +4313,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -4328,7 +4326,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -4341,7 +4339,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -4354,7 +4352,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -4367,7 +4365,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -4380,7 +4378,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -4393,7 +4391,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -4406,7 +4404,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -4419,7 +4417,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -4432,7 +4430,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4445,7 +4443,7 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4458,7 +4456,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4471,7 +4469,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -4484,7 +4482,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -4497,7 +4495,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -4510,7 +4508,7 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -4523,7 +4521,7 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -4536,7 +4534,7 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -4549,7 +4547,7 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -4562,7 +4560,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -4575,7 +4573,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -4588,7 +4586,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -4601,7 +4599,7 @@
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -4614,7 +4612,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -4627,7 +4625,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -4640,7 +4638,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -4653,7 +4651,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -4666,7 +4664,7 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -4679,7 +4677,7 @@
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -4692,7 +4690,7 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -4705,7 +4703,7 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -4718,7 +4716,7 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -4731,7 +4729,7 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -4744,7 +4742,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -4757,7 +4755,7 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -4770,7 +4768,7 @@
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -4783,7 +4781,7 @@
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -4796,7 +4794,7 @@
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -4809,7 +4807,7 @@
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -4822,7 +4820,7 @@
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -4835,7 +4833,7 @@
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -4848,7 +4846,7 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -4861,7 +4859,7 @@
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -4874,7 +4872,7 @@
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -4887,7 +4885,7 @@
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -4900,7 +4898,7 @@
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -4913,7 +4911,7 @@
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -4926,7 +4924,7 @@
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -4939,7 +4937,7 @@
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -4952,7 +4950,7 @@
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -4965,7 +4963,7 @@
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -4978,7 +4976,7 @@
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -4991,7 +4989,7 @@
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -5004,7 +5002,7 @@
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -5017,7 +5015,7 @@
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -5030,7 +5028,7 @@
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -5043,7 +5041,7 @@
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -5056,7 +5054,7 @@
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -5069,7 +5067,7 @@
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -5082,7 +5080,7 @@
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -5095,7 +5093,7 @@
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -5108,7 +5106,7 @@
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -5121,7 +5119,7 @@
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -5134,7 +5132,7 @@
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -5147,7 +5145,7 @@
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -5160,7 +5158,7 @@
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -5173,7 +5171,7 @@
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -5186,7 +5184,7 @@
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -5199,7 +5197,7 @@
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -5212,7 +5210,7 @@
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -5225,7 +5223,7 @@
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -5238,7 +5236,7 @@
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -5251,7 +5249,7 @@
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -5264,7 +5262,7 @@
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -5277,7 +5275,7 @@
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -5290,7 +5288,7 @@
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -5303,7 +5301,7 @@
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -5316,7 +5314,7 @@
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -5329,7 +5327,7 @@
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -5342,7 +5340,7 @@
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -5355,7 +5353,7 @@
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -5368,7 +5366,7 @@
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -5381,7 +5379,7 @@
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -5394,7 +5392,7 @@
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -5407,7 +5405,7 @@
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -5420,7 +5418,7 @@
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -5433,7 +5431,7 @@
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -5446,7 +5444,7 @@
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -5459,7 +5457,7 @@
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -5472,7 +5470,7 @@
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -5485,7 +5483,7 @@
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -5498,7 +5496,7 @@
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -5511,7 +5509,7 @@
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -5524,7 +5522,7 @@
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -5537,7 +5535,7 @@
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -5550,7 +5548,7 @@
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -5563,7 +5561,7 @@
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -5576,7 +5574,7 @@
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -5589,7 +5587,7 @@
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -5602,7 +5600,7 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -5615,7 +5613,7 @@
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -5628,7 +5626,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -5641,7 +5639,7 @@
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -5654,7 +5652,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -5667,7 +5665,7 @@
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -5680,7 +5678,7 @@
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -5693,7 +5691,7 @@
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -5706,7 +5704,7 @@
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -5719,7 +5717,7 @@
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -5732,7 +5730,7 @@
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -5745,7 +5743,7 @@
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -5758,7 +5756,7 @@
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -5771,7 +5769,7 @@
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -5784,7 +5782,7 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -5797,7 +5795,7 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -5810,7 +5808,7 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -5823,7 +5821,7 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -5836,7 +5834,7 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -5849,7 +5847,7 @@
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -5862,7 +5860,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -5875,7 +5873,7 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -5888,7 +5886,7 @@
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -5901,7 +5899,7 @@
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -5914,7 +5912,7 @@
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -5927,7 +5925,7 @@
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -5940,7 +5938,7 @@
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -5953,7 +5951,7 @@
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -5966,7 +5964,7 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -5979,7 +5977,7 @@
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -5992,7 +5990,7 @@
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -6005,7 +6003,7 @@
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -6018,7 +6016,7 @@
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -6031,7 +6029,7 @@
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -6044,7 +6042,7 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -6057,7 +6055,7 @@
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -6070,7 +6068,7 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -6083,7 +6081,7 @@
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -6096,7 +6094,7 @@
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -6109,7 +6107,7 @@
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -6122,7 +6120,7 @@
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -6135,7 +6133,7 @@
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -6148,7 +6146,7 @@
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -6161,7 +6159,7 @@
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -6174,7 +6172,7 @@
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -6187,7 +6185,7 @@
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -6200,7 +6198,7 @@
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -6213,7 +6211,7 @@
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -6226,7 +6224,7 @@
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -6239,7 +6237,7 @@
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -6252,7 +6250,7 @@
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -6265,7 +6263,7 @@
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -6278,7 +6276,7 @@
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -6291,7 +6289,7 @@
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -6304,7 +6302,7 @@
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -6317,7 +6315,7 @@
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -6330,7 +6328,7 @@
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -6343,7 +6341,7 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -6356,7 +6354,7 @@
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -6369,7 +6367,7 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -6382,7 +6380,7 @@
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -6395,7 +6393,7 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -6408,7 +6406,7 @@
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -6421,7 +6419,7 @@
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -6434,7 +6432,7 @@
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -6447,7 +6445,7 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -6460,7 +6458,7 @@
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -6473,7 +6471,7 @@
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -6486,7 +6484,7 @@
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -6499,7 +6497,7 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -6512,7 +6510,7 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -6525,7 +6523,7 @@
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -6538,7 +6536,7 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -6551,7 +6549,7 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -6564,7 +6562,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -6577,7 +6575,7 @@
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -6590,7 +6588,7 @@
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -6603,7 +6601,7 @@
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -6616,7 +6614,7 @@
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -6629,7 +6627,7 @@
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -6642,7 +6640,7 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -6655,7 +6653,7 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -6668,7 +6666,7 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -6681,7 +6679,7 @@
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -6694,7 +6692,7 @@
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -6707,7 +6705,7 @@
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -6720,7 +6718,7 @@
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -6733,7 +6731,7 @@
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -6746,7 +6744,7 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -6759,7 +6757,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -6772,7 +6770,7 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -6785,7 +6783,7 @@
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -6798,7 +6796,7 @@
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -6811,7 +6809,7 @@
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -6824,7 +6822,7 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -6837,7 +6835,7 @@
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -6850,7 +6848,7 @@
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -6863,7 +6861,7 @@
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -6876,7 +6874,7 @@
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -6889,7 +6887,7 @@
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -6902,7 +6900,7 @@
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -6915,7 +6913,7 @@
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -6928,7 +6926,7 @@
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -6941,7 +6939,7 @@
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -6954,7 +6952,7 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -6967,7 +6965,7 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -6980,7 +6978,7 @@
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -6993,7 +6991,7 @@
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -7006,7 +7004,7 @@
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -7019,7 +7017,7 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -7032,7 +7030,7 @@
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -7045,7 +7043,7 @@
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -7058,7 +7056,7 @@
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -7071,7 +7069,7 @@
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -7084,7 +7082,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -7097,7 +7095,7 @@
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -7110,7 +7108,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -7123,7 +7121,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -7136,7 +7134,7 @@
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -7149,7 +7147,7 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -7162,7 +7160,7 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -7175,7 +7173,7 @@
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -7188,7 +7186,7 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -7201,7 +7199,7 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -7214,7 +7212,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -7227,7 +7225,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -7240,7 +7238,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -7253,7 +7251,7 @@
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -7266,7 +7264,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -7279,7 +7277,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -7292,7 +7290,7 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -7305,7 +7303,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -7318,7 +7316,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -7331,7 +7329,7 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -7344,7 +7342,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -7357,7 +7355,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -7370,7 +7368,7 @@
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -7383,7 +7381,7 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -7396,7 +7394,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -7409,7 +7407,7 @@
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -7422,7 +7420,7 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -7435,7 +7433,7 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -7448,7 +7446,7 @@
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -7461,7 +7459,7 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -7474,7 +7472,7 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -7487,7 +7485,7 @@
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -7500,7 +7498,7 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -7513,7 +7511,7 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -7526,7 +7524,7 @@
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -7539,7 +7537,7 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -7552,7 +7550,7 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -7565,7 +7563,7 @@
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -7578,7 +7576,7 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -7591,7 +7589,7 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -7604,7 +7602,7 @@
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -7617,7 +7615,7 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -7630,7 +7628,7 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -7643,7 +7641,7 @@
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -7656,7 +7654,7 @@
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -7669,7 +7667,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -7682,7 +7680,7 @@
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -7695,7 +7693,7 @@
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -7708,7 +7706,7 @@
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -7721,7 +7719,7 @@
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
     </row>
-    <row r="513" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -7734,7 +7732,7 @@
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
     </row>
-    <row r="514" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -7747,7 +7745,7 @@
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
     </row>
-    <row r="515" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -7760,7 +7758,7 @@
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
     </row>
-    <row r="516" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -7773,7 +7771,7 @@
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
     </row>
-    <row r="517" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -7786,7 +7784,7 @@
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -7799,7 +7797,7 @@
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
     </row>
-    <row r="519" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -7812,7 +7810,7 @@
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
     </row>
-    <row r="520" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -7825,7 +7823,7 @@
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
     </row>
-    <row r="521" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -7838,7 +7836,7 @@
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
     </row>
-    <row r="522" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -7851,7 +7849,7 @@
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
     </row>
-    <row r="523" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -7864,7 +7862,7 @@
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
     </row>
-    <row r="524" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -7877,7 +7875,7 @@
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
     </row>
-    <row r="525" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -7890,7 +7888,7 @@
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
     </row>
-    <row r="526" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -7903,7 +7901,7 @@
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
     </row>
-    <row r="527" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -7916,7 +7914,7 @@
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
     </row>
-    <row r="528" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -7929,7 +7927,7 @@
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
     </row>
-    <row r="529" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -7942,7 +7940,7 @@
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
     </row>
-    <row r="530" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -7955,7 +7953,7 @@
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
     </row>
-    <row r="531" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -7968,7 +7966,7 @@
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
     </row>
-    <row r="532" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -7981,7 +7979,7 @@
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
     </row>
-    <row r="533" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -7994,7 +7992,7 @@
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
     </row>
-    <row r="534" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -8007,7 +8005,7 @@
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
     </row>
-    <row r="535" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -8020,7 +8018,7 @@
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
     </row>
-    <row r="536" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -8033,7 +8031,7 @@
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
     </row>
-    <row r="537" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -8046,7 +8044,7 @@
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
     </row>
-    <row r="538" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -8059,7 +8057,7 @@
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
     </row>
-    <row r="539" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -8072,7 +8070,7 @@
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
     </row>
-    <row r="540" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -8085,7 +8083,7 @@
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
     </row>
-    <row r="541" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -8098,7 +8096,7 @@
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
     </row>
-    <row r="542" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -8111,7 +8109,7 @@
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
     </row>
-    <row r="543" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -8124,7 +8122,7 @@
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
     </row>
-    <row r="544" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -8137,7 +8135,7 @@
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
     </row>
-    <row r="545" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -8150,7 +8148,7 @@
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
     </row>
-    <row r="546" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -8163,7 +8161,7 @@
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
     </row>
-    <row r="547" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -8176,7 +8174,7 @@
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
     </row>
-    <row r="548" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -8189,7 +8187,7 @@
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
     </row>
-    <row r="549" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -8202,7 +8200,7 @@
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
     </row>
-    <row r="550" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -8215,7 +8213,7 @@
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
     </row>
-    <row r="551" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -8228,7 +8226,7 @@
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
     </row>
-    <row r="552" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -8241,7 +8239,7 @@
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
     </row>
-    <row r="553" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -8254,7 +8252,7 @@
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
     </row>
-    <row r="554" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -8267,7 +8265,7 @@
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
     </row>
-    <row r="555" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -8280,7 +8278,7 @@
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
     </row>
-    <row r="556" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -8293,7 +8291,7 @@
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
     </row>
-    <row r="557" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -8306,7 +8304,7 @@
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
     </row>
-    <row r="558" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -8319,7 +8317,7 @@
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
     </row>
-    <row r="559" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -8332,7 +8330,7 @@
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
     </row>
-    <row r="560" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -8345,7 +8343,7 @@
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
     </row>
-    <row r="561" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -8358,7 +8356,7 @@
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
     </row>
-    <row r="562" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -8371,7 +8369,7 @@
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
     </row>
-    <row r="563" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -8384,7 +8382,7 @@
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
     </row>
-    <row r="564" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -8397,7 +8395,7 @@
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
     </row>
-    <row r="565" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -8410,7 +8408,7 @@
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
     </row>
-    <row r="566" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -8423,7 +8421,7 @@
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
     </row>
-    <row r="567" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -8436,7 +8434,7 @@
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
     </row>
-    <row r="568" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -8449,7 +8447,7 @@
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
     </row>
-    <row r="569" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -8462,7 +8460,7 @@
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
     </row>
-    <row r="570" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -8475,7 +8473,7 @@
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
     </row>
-    <row r="571" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -8488,7 +8486,7 @@
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
     </row>
-    <row r="572" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -8501,7 +8499,7 @@
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
     </row>
-    <row r="573" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -8514,7 +8512,7 @@
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
     </row>
-    <row r="574" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -8527,7 +8525,7 @@
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
     </row>
-    <row r="575" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -8540,7 +8538,7 @@
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
     </row>
-    <row r="576" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -8553,7 +8551,7 @@
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
     </row>
-    <row r="577" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -8566,7 +8564,7 @@
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
     </row>
-    <row r="578" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -8579,7 +8577,7 @@
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
     </row>
-    <row r="579" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -8592,7 +8590,7 @@
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
     </row>
-    <row r="580" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -8605,7 +8603,7 @@
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
     </row>
-    <row r="581" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -8618,7 +8616,7 @@
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
     </row>
-    <row r="582" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -8631,7 +8629,7 @@
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
     </row>
-    <row r="583" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -8644,7 +8642,7 @@
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
     </row>
-    <row r="584" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -8657,7 +8655,7 @@
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
     </row>
-    <row r="585" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -8670,7 +8668,7 @@
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
     </row>
-    <row r="586" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -8683,7 +8681,7 @@
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
     </row>
-    <row r="587" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -8696,7 +8694,7 @@
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
     </row>
-    <row r="588" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -8709,7 +8707,7 @@
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
     </row>
-    <row r="589" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -8722,7 +8720,7 @@
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
     </row>
-    <row r="590" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -8735,7 +8733,7 @@
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
     </row>
-    <row r="591" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -8748,7 +8746,7 @@
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
     </row>
-    <row r="592" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -8761,7 +8759,7 @@
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
     </row>
-    <row r="593" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -8774,7 +8772,7 @@
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
     </row>
-    <row r="594" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -8787,7 +8785,7 @@
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
     </row>
-    <row r="595" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -8800,7 +8798,7 @@
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
     </row>
-    <row r="596" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -8813,7 +8811,7 @@
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
     </row>
-    <row r="597" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -8826,7 +8824,7 @@
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
     </row>
-    <row r="598" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -8839,7 +8837,7 @@
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
     </row>
-    <row r="599" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -8852,7 +8850,7 @@
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
     </row>
-    <row r="600" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -8865,7 +8863,7 @@
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
     </row>
-    <row r="601" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -8878,7 +8876,7 @@
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
     </row>
-    <row r="602" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -8891,7 +8889,7 @@
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
     </row>
-    <row r="603" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -8904,7 +8902,7 @@
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
     </row>
-    <row r="604" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -8917,7 +8915,7 @@
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
     </row>
-    <row r="605" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -8930,7 +8928,7 @@
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
     </row>
-    <row r="606" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -8943,7 +8941,7 @@
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
     </row>
-    <row r="607" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -8956,7 +8954,7 @@
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
     </row>
-    <row r="608" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -8969,7 +8967,7 @@
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
-    <row r="609" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -8982,7 +8980,7 @@
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
     </row>
-    <row r="610" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -8995,7 +8993,7 @@
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
     </row>
-    <row r="611" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -9008,7 +9006,7 @@
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
     </row>
-    <row r="612" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -9021,7 +9019,7 @@
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
     </row>
-    <row r="613" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -9034,7 +9032,7 @@
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
     </row>
-    <row r="614" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -9047,7 +9045,7 @@
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
     </row>
-    <row r="615" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -9060,7 +9058,7 @@
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
     </row>
-    <row r="616" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -9073,7 +9071,7 @@
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
     </row>
-    <row r="617" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -9086,7 +9084,7 @@
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
     </row>
-    <row r="618" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -9099,7 +9097,7 @@
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
     </row>
-    <row r="619" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -9112,7 +9110,7 @@
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
     </row>
-    <row r="620" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -9125,7 +9123,7 @@
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
-    <row r="621" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -9138,7 +9136,7 @@
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
     </row>
-    <row r="622" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -9151,7 +9149,7 @@
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
     </row>
-    <row r="623" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -9164,7 +9162,7 @@
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
     </row>
-    <row r="624" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -9177,7 +9175,7 @@
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
     </row>
-    <row r="625" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -9190,7 +9188,7 @@
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
     </row>
-    <row r="626" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -9203,7 +9201,7 @@
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
     </row>
-    <row r="627" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -9216,7 +9214,7 @@
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
     </row>
-    <row r="628" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -9229,7 +9227,7 @@
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
     </row>
-    <row r="629" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -9242,7 +9240,7 @@
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
     </row>
-    <row r="630" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -9255,7 +9253,7 @@
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
     </row>
-    <row r="631" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -9268,7 +9266,7 @@
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
     </row>
-    <row r="632" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -9281,7 +9279,7 @@
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
     </row>
-    <row r="633" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -9294,7 +9292,7 @@
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
     </row>
-    <row r="634" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -9307,7 +9305,7 @@
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
     </row>
-    <row r="635" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -9320,7 +9318,7 @@
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
     </row>
-    <row r="636" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -9333,7 +9331,7 @@
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
     </row>
-    <row r="637" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -9346,7 +9344,7 @@
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
     </row>
-    <row r="638" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -9359,7 +9357,7 @@
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
     </row>
-    <row r="639" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -9372,7 +9370,7 @@
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
     </row>
-    <row r="640" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -9385,7 +9383,7 @@
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
     </row>
-    <row r="641" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -9398,7 +9396,7 @@
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
     </row>
-    <row r="642" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -9411,7 +9409,7 @@
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
     </row>
-    <row r="643" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -9424,7 +9422,7 @@
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
     </row>
-    <row r="644" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -9437,7 +9435,7 @@
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
     </row>
-    <row r="645" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -9450,7 +9448,7 @@
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
     </row>
-    <row r="646" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -9463,7 +9461,7 @@
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
     </row>
-    <row r="647" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -9476,7 +9474,7 @@
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
     </row>
-    <row r="648" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -9489,7 +9487,7 @@
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
     </row>
-    <row r="649" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -9502,7 +9500,7 @@
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
     </row>
-    <row r="650" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -9515,7 +9513,7 @@
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
     </row>
-    <row r="651" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -9528,7 +9526,7 @@
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
     </row>
-    <row r="652" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -9541,7 +9539,7 @@
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
     </row>
-    <row r="653" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -9554,7 +9552,7 @@
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
     </row>
-    <row r="654" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -9567,7 +9565,7 @@
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
     </row>
-    <row r="655" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -9580,7 +9578,7 @@
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
     </row>
-    <row r="656" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -9593,7 +9591,7 @@
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
     </row>
-    <row r="657" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -9606,7 +9604,7 @@
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
     </row>
-    <row r="658" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -9619,7 +9617,7 @@
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
     </row>
-    <row r="659" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -9632,7 +9630,7 @@
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
     </row>
-    <row r="660" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -9645,7 +9643,7 @@
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
     </row>
-    <row r="661" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -9658,7 +9656,7 @@
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
     </row>
-    <row r="662" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -9671,7 +9669,7 @@
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
     </row>
-    <row r="663" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -9684,7 +9682,7 @@
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
     </row>
-    <row r="664" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -9697,7 +9695,7 @@
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
     </row>
-    <row r="665" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -9710,7 +9708,7 @@
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
     </row>
-    <row r="666" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -9723,7 +9721,7 @@
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
     </row>
-    <row r="667" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -9736,7 +9734,7 @@
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
     </row>
-    <row r="668" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -9749,7 +9747,7 @@
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
     </row>
-    <row r="669" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -9762,7 +9760,7 @@
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
     </row>
-    <row r="670" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -9775,7 +9773,7 @@
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
     </row>
-    <row r="671" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -9788,7 +9786,7 @@
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
     </row>
-    <row r="672" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -9801,7 +9799,7 @@
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
     </row>
-    <row r="673" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -9814,7 +9812,7 @@
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
     </row>
-    <row r="674" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -9827,7 +9825,7 @@
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
     </row>
-    <row r="675" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -9840,7 +9838,7 @@
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
     </row>
-    <row r="676" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -9853,7 +9851,7 @@
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
     </row>
-    <row r="677" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -9866,7 +9864,7 @@
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
     </row>
-    <row r="678" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -9879,7 +9877,7 @@
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
     </row>
-    <row r="679" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -9892,7 +9890,7 @@
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
     </row>
-    <row r="680" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -9905,7 +9903,7 @@
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
     </row>
-    <row r="681" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -9918,7 +9916,7 @@
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
     </row>
-    <row r="682" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -9931,7 +9929,7 @@
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
     </row>
-    <row r="683" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -9944,7 +9942,7 @@
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
     </row>
-    <row r="684" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -9957,7 +9955,7 @@
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
     </row>
-    <row r="685" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -9970,7 +9968,7 @@
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
     </row>
-    <row r="686" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -9983,7 +9981,7 @@
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
     </row>
-    <row r="687" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -9996,7 +9994,7 @@
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
     </row>
-    <row r="688" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -10009,7 +10007,7 @@
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
     </row>
-    <row r="689" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -10022,7 +10020,7 @@
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
     </row>
-    <row r="690" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -10035,7 +10033,7 @@
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
     </row>
-    <row r="691" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -10048,7 +10046,7 @@
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
     </row>
-    <row r="692" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -10061,7 +10059,7 @@
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
     </row>
-    <row r="693" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -10074,7 +10072,7 @@
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
     </row>
-    <row r="694" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -10087,7 +10085,7 @@
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
     </row>
-    <row r="695" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -10100,7 +10098,7 @@
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
     </row>
-    <row r="696" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -10113,7 +10111,7 @@
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
     </row>
-    <row r="697" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -10126,7 +10124,7 @@
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
     </row>
-    <row r="698" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -10139,7 +10137,7 @@
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
     </row>
-    <row r="699" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -10152,7 +10150,7 @@
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
     </row>
-    <row r="700" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -10165,7 +10163,7 @@
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
     </row>
-    <row r="701" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -10178,7 +10176,7 @@
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
     </row>
-    <row r="702" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -10191,7 +10189,7 @@
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
     </row>
-    <row r="703" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -10204,7 +10202,7 @@
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
     </row>
-    <row r="704" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -10217,7 +10215,7 @@
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
     </row>
-    <row r="705" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -10230,7 +10228,7 @@
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
     </row>
-    <row r="706" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -10243,7 +10241,7 @@
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
     </row>
-    <row r="707" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -10256,7 +10254,7 @@
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
     </row>
-    <row r="708" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -10269,7 +10267,7 @@
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
     </row>
-    <row r="709" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -10282,7 +10280,7 @@
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
     </row>
-    <row r="710" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -10295,7 +10293,7 @@
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
     </row>
-    <row r="711" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -10308,7 +10306,7 @@
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
     </row>
-    <row r="712" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -10321,7 +10319,7 @@
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
     </row>
-    <row r="713" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -10334,7 +10332,7 @@
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
     </row>
-    <row r="714" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -10347,7 +10345,7 @@
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
     </row>
-    <row r="715" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -10360,7 +10358,7 @@
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
     </row>
-    <row r="716" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -10373,7 +10371,7 @@
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
     </row>
-    <row r="717" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -10386,7 +10384,7 @@
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
     </row>
-    <row r="718" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -10399,7 +10397,7 @@
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
     </row>
-    <row r="719" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -10412,7 +10410,7 @@
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
     </row>
-    <row r="720" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -10425,7 +10423,7 @@
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
     </row>
-    <row r="721" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -10438,7 +10436,7 @@
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
     </row>
-    <row r="722" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -10451,7 +10449,7 @@
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
     </row>
-    <row r="723" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -10464,7 +10462,7 @@
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
     </row>
-    <row r="724" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -10477,7 +10475,7 @@
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
     </row>
-    <row r="725" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -10490,7 +10488,7 @@
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
     </row>
-    <row r="726" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -10503,7 +10501,7 @@
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
     </row>
-    <row r="727" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -10516,7 +10514,7 @@
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
     </row>
-    <row r="728" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -10529,7 +10527,7 @@
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
     </row>
-    <row r="729" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -10542,7 +10540,7 @@
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
     </row>
-    <row r="730" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -10555,7 +10553,7 @@
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
     </row>
-    <row r="731" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -10568,7 +10566,7 @@
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
     </row>
-    <row r="732" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -10581,7 +10579,7 @@
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
     </row>
-    <row r="733" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -10594,7 +10592,7 @@
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
     </row>
-    <row r="734" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -10607,7 +10605,7 @@
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
     </row>
-    <row r="735" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -10620,7 +10618,7 @@
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
     </row>
-    <row r="736" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -10633,7 +10631,7 @@
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
     </row>
-    <row r="737" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -10646,7 +10644,7 @@
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
     </row>
-    <row r="738" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -10659,7 +10657,7 @@
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
     </row>
-    <row r="739" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -10672,7 +10670,7 @@
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
     </row>
-    <row r="740" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -10685,7 +10683,7 @@
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
     </row>
-    <row r="741" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -10698,7 +10696,7 @@
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
     </row>
-    <row r="742" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -10711,7 +10709,7 @@
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
     </row>
-    <row r="743" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -10724,7 +10722,7 @@
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
     </row>
-    <row r="744" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -10737,7 +10735,7 @@
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
     </row>
-    <row r="745" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -10750,7 +10748,7 @@
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
     </row>
-    <row r="746" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -10763,7 +10761,7 @@
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
     </row>
-    <row r="747" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -10776,7 +10774,7 @@
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
     </row>
-    <row r="748" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -10789,7 +10787,7 @@
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
     </row>
-    <row r="749" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -10802,7 +10800,7 @@
       <c r="J749" s="2"/>
       <c r="K749" s="2"/>
     </row>
-    <row r="750" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -10815,7 +10813,7 @@
       <c r="J750" s="2"/>
       <c r="K750" s="2"/>
     </row>
-    <row r="751" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -10828,7 +10826,7 @@
       <c r="J751" s="2"/>
       <c r="K751" s="2"/>
     </row>
-    <row r="752" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -10841,7 +10839,7 @@
       <c r="J752" s="2"/>
       <c r="K752" s="2"/>
     </row>
-    <row r="753" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -10854,7 +10852,7 @@
       <c r="J753" s="2"/>
       <c r="K753" s="2"/>
     </row>
-    <row r="754" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -10867,7 +10865,7 @@
       <c r="J754" s="2"/>
       <c r="K754" s="2"/>
     </row>
-    <row r="755" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -10880,7 +10878,7 @@
       <c r="J755" s="2"/>
       <c r="K755" s="2"/>
     </row>
-    <row r="756" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -10893,7 +10891,7 @@
       <c r="J756" s="2"/>
       <c r="K756" s="2"/>
     </row>
-    <row r="757" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -10906,7 +10904,7 @@
       <c r="J757" s="2"/>
       <c r="K757" s="2"/>
     </row>
-    <row r="758" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -10919,7 +10917,7 @@
       <c r="J758" s="2"/>
       <c r="K758" s="2"/>
     </row>
-    <row r="759" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -10932,7 +10930,7 @@
       <c r="J759" s="2"/>
       <c r="K759" s="2"/>
     </row>
-    <row r="760" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -10945,7 +10943,7 @@
       <c r="J760" s="2"/>
       <c r="K760" s="2"/>
     </row>
-    <row r="761" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -10958,7 +10956,7 @@
       <c r="J761" s="2"/>
       <c r="K761" s="2"/>
     </row>
-    <row r="762" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -10971,7 +10969,7 @@
       <c r="J762" s="2"/>
       <c r="K762" s="2"/>
     </row>
-    <row r="763" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -10984,7 +10982,7 @@
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
     </row>
-    <row r="764" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -10997,7 +10995,7 @@
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
     </row>
-    <row r="765" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -11010,7 +11008,7 @@
       <c r="J765" s="2"/>
       <c r="K765" s="2"/>
     </row>
-    <row r="766" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -11023,7 +11021,7 @@
       <c r="J766" s="2"/>
       <c r="K766" s="2"/>
     </row>
-    <row r="767" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -11036,7 +11034,7 @@
       <c r="J767" s="2"/>
       <c r="K767" s="2"/>
     </row>
-    <row r="768" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -11049,7 +11047,7 @@
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
     </row>
-    <row r="769" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -11062,7 +11060,7 @@
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
     </row>
-    <row r="770" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -11075,7 +11073,7 @@
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
     </row>
-    <row r="771" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -11088,7 +11086,7 @@
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
     </row>
-    <row r="772" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -11101,7 +11099,7 @@
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
     </row>
-    <row r="773" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -11114,7 +11112,7 @@
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
     </row>
-    <row r="774" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -11127,7 +11125,7 @@
       <c r="J774" s="2"/>
       <c r="K774" s="2"/>
     </row>
-    <row r="775" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -11140,7 +11138,7 @@
       <c r="J775" s="2"/>
       <c r="K775" s="2"/>
     </row>
-    <row r="776" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -11153,7 +11151,7 @@
       <c r="J776" s="2"/>
       <c r="K776" s="2"/>
     </row>
-    <row r="777" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -11166,7 +11164,7 @@
       <c r="J777" s="2"/>
       <c r="K777" s="2"/>
     </row>
-    <row r="778" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -11179,7 +11177,7 @@
       <c r="J778" s="2"/>
       <c r="K778" s="2"/>
     </row>
-    <row r="779" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -11192,7 +11190,7 @@
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
     </row>
-    <row r="780" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -11205,7 +11203,7 @@
       <c r="J780" s="2"/>
       <c r="K780" s="2"/>
     </row>
-    <row r="781" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -11218,7 +11216,7 @@
       <c r="J781" s="2"/>
       <c r="K781" s="2"/>
     </row>
-    <row r="782" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -11231,7 +11229,7 @@
       <c r="J782" s="2"/>
       <c r="K782" s="2"/>
     </row>
-    <row r="783" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -11244,7 +11242,7 @@
       <c r="J783" s="2"/>
       <c r="K783" s="2"/>
     </row>
-    <row r="784" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -11257,7 +11255,7 @@
       <c r="J784" s="2"/>
       <c r="K784" s="2"/>
     </row>
-    <row r="785" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -11270,7 +11268,7 @@
       <c r="J785" s="2"/>
       <c r="K785" s="2"/>
     </row>
-    <row r="786" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -11283,7 +11281,7 @@
       <c r="J786" s="2"/>
       <c r="K786" s="2"/>
     </row>
-    <row r="787" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -11296,7 +11294,7 @@
       <c r="J787" s="2"/>
       <c r="K787" s="2"/>
     </row>
-    <row r="788" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -11309,7 +11307,7 @@
       <c r="J788" s="2"/>
       <c r="K788" s="2"/>
     </row>
-    <row r="789" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -11322,7 +11320,7 @@
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
     </row>
-    <row r="790" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -11335,7 +11333,7 @@
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
     </row>
-    <row r="791" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -11348,7 +11346,7 @@
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
     </row>
-    <row r="792" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -11361,7 +11359,7 @@
       <c r="J792" s="2"/>
       <c r="K792" s="2"/>
     </row>
-    <row r="793" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -11374,7 +11372,7 @@
       <c r="J793" s="2"/>
       <c r="K793" s="2"/>
     </row>
-    <row r="794" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -11387,7 +11385,7 @@
       <c r="J794" s="2"/>
       <c r="K794" s="2"/>
     </row>
-    <row r="795" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -11400,7 +11398,7 @@
       <c r="J795" s="2"/>
       <c r="K795" s="2"/>
     </row>
-    <row r="796" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -11413,7 +11411,7 @@
       <c r="J796" s="2"/>
       <c r="K796" s="2"/>
     </row>
-    <row r="797" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -11426,7 +11424,7 @@
       <c r="J797" s="2"/>
       <c r="K797" s="2"/>
     </row>
-    <row r="798" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -11439,7 +11437,7 @@
       <c r="J798" s="2"/>
       <c r="K798" s="2"/>
     </row>
-    <row r="799" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -11452,7 +11450,7 @@
       <c r="J799" s="2"/>
       <c r="K799" s="2"/>
     </row>
-    <row r="800" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -11465,7 +11463,7 @@
       <c r="J800" s="2"/>
       <c r="K800" s="2"/>
     </row>
-    <row r="801" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -11478,7 +11476,7 @@
       <c r="J801" s="2"/>
       <c r="K801" s="2"/>
     </row>
-    <row r="802" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -11491,7 +11489,7 @@
       <c r="J802" s="2"/>
       <c r="K802" s="2"/>
     </row>
-    <row r="803" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -11504,7 +11502,7 @@
       <c r="J803" s="2"/>
       <c r="K803" s="2"/>
     </row>
-    <row r="804" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -11517,7 +11515,7 @@
       <c r="J804" s="2"/>
       <c r="K804" s="2"/>
     </row>
-    <row r="805" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -11530,7 +11528,7 @@
       <c r="J805" s="2"/>
       <c r="K805" s="2"/>
     </row>
-    <row r="806" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -11543,7 +11541,7 @@
       <c r="J806" s="2"/>
       <c r="K806" s="2"/>
     </row>
-    <row r="807" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -11556,7 +11554,7 @@
       <c r="J807" s="2"/>
       <c r="K807" s="2"/>
     </row>
-    <row r="808" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -11569,7 +11567,7 @@
       <c r="J808" s="2"/>
       <c r="K808" s="2"/>
     </row>
-    <row r="809" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -11582,7 +11580,7 @@
       <c r="J809" s="2"/>
       <c r="K809" s="2"/>
     </row>
-    <row r="810" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -11595,7 +11593,7 @@
       <c r="J810" s="2"/>
       <c r="K810" s="2"/>
     </row>
-    <row r="811" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -11608,7 +11606,7 @@
       <c r="J811" s="2"/>
       <c r="K811" s="2"/>
     </row>
-    <row r="812" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -11621,7 +11619,7 @@
       <c r="J812" s="2"/>
       <c r="K812" s="2"/>
     </row>
-    <row r="813" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -11634,7 +11632,7 @@
       <c r="J813" s="2"/>
       <c r="K813" s="2"/>
     </row>
-    <row r="814" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -11647,7 +11645,7 @@
       <c r="J814" s="2"/>
       <c r="K814" s="2"/>
     </row>
-    <row r="815" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -11660,7 +11658,7 @@
       <c r="J815" s="2"/>
       <c r="K815" s="2"/>
     </row>
-    <row r="816" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -11673,7 +11671,7 @@
       <c r="J816" s="2"/>
       <c r="K816" s="2"/>
     </row>
-    <row r="817" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -11686,7 +11684,7 @@
       <c r="J817" s="2"/>
       <c r="K817" s="2"/>
     </row>
-    <row r="818" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -11699,7 +11697,7 @@
       <c r="J818" s="2"/>
       <c r="K818" s="2"/>
     </row>
-    <row r="819" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -11712,7 +11710,7 @@
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
     </row>
-    <row r="820" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -11725,7 +11723,7 @@
       <c r="J820" s="2"/>
       <c r="K820" s="2"/>
     </row>
-    <row r="821" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -11738,7 +11736,7 @@
       <c r="J821" s="2"/>
       <c r="K821" s="2"/>
     </row>
-    <row r="822" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -11751,7 +11749,7 @@
       <c r="J822" s="2"/>
       <c r="K822" s="2"/>
     </row>
-    <row r="823" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -11764,7 +11762,7 @@
       <c r="J823" s="2"/>
       <c r="K823" s="2"/>
     </row>
-    <row r="824" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -11777,7 +11775,7 @@
       <c r="J824" s="2"/>
       <c r="K824" s="2"/>
     </row>
-    <row r="825" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -11790,7 +11788,7 @@
       <c r="J825" s="2"/>
       <c r="K825" s="2"/>
     </row>
-    <row r="826" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -11803,7 +11801,7 @@
       <c r="J826" s="2"/>
       <c r="K826" s="2"/>
     </row>
-    <row r="827" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -11816,7 +11814,7 @@
       <c r="J827" s="2"/>
       <c r="K827" s="2"/>
     </row>
-    <row r="828" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -11829,7 +11827,7 @@
       <c r="J828" s="2"/>
       <c r="K828" s="2"/>
     </row>
-    <row r="829" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -11842,7 +11840,7 @@
       <c r="J829" s="2"/>
       <c r="K829" s="2"/>
     </row>
-    <row r="830" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -11855,7 +11853,7 @@
       <c r="J830" s="2"/>
       <c r="K830" s="2"/>
     </row>
-    <row r="831" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -11868,7 +11866,7 @@
       <c r="J831" s="2"/>
       <c r="K831" s="2"/>
     </row>
-    <row r="832" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -11881,7 +11879,7 @@
       <c r="J832" s="2"/>
       <c r="K832" s="2"/>
     </row>
-    <row r="833" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -11894,7 +11892,7 @@
       <c r="J833" s="2"/>
       <c r="K833" s="2"/>
     </row>
-    <row r="834" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -11907,7 +11905,7 @@
       <c r="J834" s="2"/>
       <c r="K834" s="2"/>
     </row>
-    <row r="835" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -11920,7 +11918,7 @@
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
     </row>
-    <row r="836" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -11933,7 +11931,7 @@
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
     </row>
-    <row r="837" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -11946,7 +11944,7 @@
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
     </row>
-    <row r="838" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -11959,7 +11957,7 @@
       <c r="J838" s="2"/>
       <c r="K838" s="2"/>
     </row>
-    <row r="839" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -11972,7 +11970,7 @@
       <c r="J839" s="2"/>
       <c r="K839" s="2"/>
     </row>
-    <row r="840" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -11985,7 +11983,7 @@
       <c r="J840" s="2"/>
       <c r="K840" s="2"/>
     </row>
-    <row r="841" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -11998,7 +11996,7 @@
       <c r="J841" s="2"/>
       <c r="K841" s="2"/>
     </row>
-    <row r="842" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -12011,7 +12009,7 @@
       <c r="J842" s="2"/>
       <c r="K842" s="2"/>
     </row>
-    <row r="843" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -12024,7 +12022,7 @@
       <c r="J843" s="2"/>
       <c r="K843" s="2"/>
     </row>
-    <row r="844" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -12037,7 +12035,7 @@
       <c r="J844" s="2"/>
       <c r="K844" s="2"/>
     </row>
-    <row r="845" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -12050,7 +12048,7 @@
       <c r="J845" s="2"/>
       <c r="K845" s="2"/>
     </row>
-    <row r="846" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -12063,7 +12061,7 @@
       <c r="J846" s="2"/>
       <c r="K846" s="2"/>
     </row>
-    <row r="847" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -12076,7 +12074,7 @@
       <c r="J847" s="2"/>
       <c r="K847" s="2"/>
     </row>
-    <row r="848" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -12089,7 +12087,7 @@
       <c r="J848" s="2"/>
       <c r="K848" s="2"/>
     </row>
-    <row r="849" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -12102,7 +12100,7 @@
       <c r="J849" s="2"/>
       <c r="K849" s="2"/>
     </row>
-    <row r="850" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -12115,7 +12113,7 @@
       <c r="J850" s="2"/>
       <c r="K850" s="2"/>
     </row>
-    <row r="851" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -12128,7 +12126,7 @@
       <c r="J851" s="2"/>
       <c r="K851" s="2"/>
     </row>
-    <row r="852" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -12141,7 +12139,7 @@
       <c r="J852" s="2"/>
       <c r="K852" s="2"/>
     </row>
-    <row r="853" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -12154,7 +12152,7 @@
       <c r="J853" s="2"/>
       <c r="K853" s="2"/>
     </row>
-    <row r="854" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -12167,7 +12165,7 @@
       <c r="J854" s="2"/>
       <c r="K854" s="2"/>
     </row>
-    <row r="855" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -12180,7 +12178,7 @@
       <c r="J855" s="2"/>
       <c r="K855" s="2"/>
     </row>
-    <row r="856" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -12193,7 +12191,7 @@
       <c r="J856" s="2"/>
       <c r="K856" s="2"/>
     </row>
-    <row r="857" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -12206,7 +12204,7 @@
       <c r="J857" s="2"/>
       <c r="K857" s="2"/>
     </row>
-    <row r="858" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -12219,7 +12217,7 @@
       <c r="J858" s="2"/>
       <c r="K858" s="2"/>
     </row>
-    <row r="859" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -12232,7 +12230,7 @@
       <c r="J859" s="2"/>
       <c r="K859" s="2"/>
     </row>
-    <row r="860" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -12245,7 +12243,7 @@
       <c r="J860" s="2"/>
       <c r="K860" s="2"/>
     </row>
-    <row r="861" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -12258,7 +12256,7 @@
       <c r="J861" s="2"/>
       <c r="K861" s="2"/>
     </row>
-    <row r="862" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -12271,7 +12269,7 @@
       <c r="J862" s="2"/>
       <c r="K862" s="2"/>
     </row>
-    <row r="863" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -12284,7 +12282,7 @@
       <c r="J863" s="2"/>
       <c r="K863" s="2"/>
     </row>
-    <row r="864" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -12297,7 +12295,7 @@
       <c r="J864" s="2"/>
       <c r="K864" s="2"/>
     </row>
-    <row r="865" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -12310,7 +12308,7 @@
       <c r="J865" s="2"/>
       <c r="K865" s="2"/>
     </row>
-    <row r="866" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -12323,7 +12321,7 @@
       <c r="J866" s="2"/>
       <c r="K866" s="2"/>
     </row>
-    <row r="867" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -12336,7 +12334,7 @@
       <c r="J867" s="2"/>
       <c r="K867" s="2"/>
     </row>
-    <row r="868" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -12349,7 +12347,7 @@
       <c r="J868" s="2"/>
       <c r="K868" s="2"/>
     </row>
-    <row r="869" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -12362,7 +12360,7 @@
       <c r="J869" s="2"/>
       <c r="K869" s="2"/>
     </row>
-    <row r="870" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -12375,7 +12373,7 @@
       <c r="J870" s="2"/>
       <c r="K870" s="2"/>
     </row>
-    <row r="871" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -12388,7 +12386,7 @@
       <c r="J871" s="2"/>
       <c r="K871" s="2"/>
     </row>
-    <row r="872" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -12401,7 +12399,7 @@
       <c r="J872" s="2"/>
       <c r="K872" s="2"/>
     </row>
-    <row r="873" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -12414,7 +12412,7 @@
       <c r="J873" s="2"/>
       <c r="K873" s="2"/>
     </row>
-    <row r="874" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -12427,7 +12425,7 @@
       <c r="J874" s="2"/>
       <c r="K874" s="2"/>
     </row>
-    <row r="875" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -12440,7 +12438,7 @@
       <c r="J875" s="2"/>
       <c r="K875" s="2"/>
     </row>
-    <row r="876" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -12453,7 +12451,7 @@
       <c r="J876" s="2"/>
       <c r="K876" s="2"/>
     </row>
-    <row r="877" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -12466,7 +12464,7 @@
       <c r="J877" s="2"/>
       <c r="K877" s="2"/>
     </row>
-    <row r="878" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -12479,7 +12477,7 @@
       <c r="J878" s="2"/>
       <c r="K878" s="2"/>
     </row>
-    <row r="879" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -12492,7 +12490,7 @@
       <c r="J879" s="2"/>
       <c r="K879" s="2"/>
     </row>
-    <row r="880" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -12505,7 +12503,7 @@
       <c r="J880" s="2"/>
       <c r="K880" s="2"/>
     </row>
-    <row r="881" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -12518,7 +12516,7 @@
       <c r="J881" s="2"/>
       <c r="K881" s="2"/>
     </row>
-    <row r="882" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -12531,7 +12529,7 @@
       <c r="J882" s="2"/>
       <c r="K882" s="2"/>
     </row>
-    <row r="883" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -12544,7 +12542,7 @@
       <c r="J883" s="2"/>
       <c r="K883" s="2"/>
     </row>
-    <row r="884" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -12557,7 +12555,7 @@
       <c r="J884" s="2"/>
       <c r="K884" s="2"/>
     </row>
-    <row r="885" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -12570,7 +12568,7 @@
       <c r="J885" s="2"/>
       <c r="K885" s="2"/>
     </row>
-    <row r="886" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -12583,7 +12581,7 @@
       <c r="J886" s="2"/>
       <c r="K886" s="2"/>
     </row>
-    <row r="887" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -12596,7 +12594,7 @@
       <c r="J887" s="2"/>
       <c r="K887" s="2"/>
     </row>
-    <row r="888" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -12609,7 +12607,7 @@
       <c r="J888" s="2"/>
       <c r="K888" s="2"/>
     </row>
-    <row r="889" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -12622,7 +12620,7 @@
       <c r="J889" s="2"/>
       <c r="K889" s="2"/>
     </row>
-    <row r="890" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -12635,7 +12633,7 @@
       <c r="J890" s="2"/>
       <c r="K890" s="2"/>
     </row>
-    <row r="891" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -12648,7 +12646,7 @@
       <c r="J891" s="2"/>
       <c r="K891" s="2"/>
     </row>
-    <row r="892" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -12661,7 +12659,7 @@
       <c r="J892" s="2"/>
       <c r="K892" s="2"/>
     </row>
-    <row r="893" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -12674,7 +12672,7 @@
       <c r="J893" s="2"/>
       <c r="K893" s="2"/>
     </row>
-    <row r="894" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -12687,7 +12685,7 @@
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
     </row>
-    <row r="895" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -12700,7 +12698,7 @@
       <c r="J895" s="2"/>
       <c r="K895" s="2"/>
     </row>
-    <row r="896" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -12713,7 +12711,7 @@
       <c r="J896" s="2"/>
       <c r="K896" s="2"/>
     </row>
-    <row r="897" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -12726,7 +12724,7 @@
       <c r="J897" s="2"/>
       <c r="K897" s="2"/>
     </row>
-    <row r="898" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -12739,7 +12737,7 @@
       <c r="J898" s="2"/>
       <c r="K898" s="2"/>
     </row>
-    <row r="899" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -12752,7 +12750,7 @@
       <c r="J899" s="2"/>
       <c r="K899" s="2"/>
     </row>
-    <row r="900" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -12765,7 +12763,7 @@
       <c r="J900" s="2"/>
       <c r="K900" s="2"/>
     </row>
-    <row r="901" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -12778,7 +12776,7 @@
       <c r="J901" s="2"/>
       <c r="K901" s="2"/>
     </row>
-    <row r="902" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -12791,7 +12789,7 @@
       <c r="J902" s="2"/>
       <c r="K902" s="2"/>
     </row>
-    <row r="903" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -12804,7 +12802,7 @@
       <c r="J903" s="2"/>
       <c r="K903" s="2"/>
     </row>
-    <row r="904" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -12817,7 +12815,7 @@
       <c r="J904" s="2"/>
       <c r="K904" s="2"/>
     </row>
-    <row r="905" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -12830,7 +12828,7 @@
       <c r="J905" s="2"/>
       <c r="K905" s="2"/>
     </row>
-    <row r="906" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -12843,7 +12841,7 @@
       <c r="J906" s="2"/>
       <c r="K906" s="2"/>
     </row>
-    <row r="907" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -12856,7 +12854,7 @@
       <c r="J907" s="2"/>
       <c r="K907" s="2"/>
     </row>
-    <row r="908" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -12869,7 +12867,7 @@
       <c r="J908" s="2"/>
       <c r="K908" s="2"/>
     </row>
-    <row r="909" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -12882,7 +12880,7 @@
       <c r="J909" s="2"/>
       <c r="K909" s="2"/>
     </row>
-    <row r="910" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -12895,7 +12893,7 @@
       <c r="J910" s="2"/>
       <c r="K910" s="2"/>
     </row>
-    <row r="911" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -12908,7 +12906,7 @@
       <c r="J911" s="2"/>
       <c r="K911" s="2"/>
     </row>
-    <row r="912" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -12921,7 +12919,7 @@
       <c r="J912" s="2"/>
       <c r="K912" s="2"/>
     </row>
-    <row r="913" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -12934,7 +12932,7 @@
       <c r="J913" s="2"/>
       <c r="K913" s="2"/>
     </row>
-    <row r="914" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -12947,7 +12945,7 @@
       <c r="J914" s="2"/>
       <c r="K914" s="2"/>
     </row>
-    <row r="915" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -12960,7 +12958,7 @@
       <c r="J915" s="2"/>
       <c r="K915" s="2"/>
     </row>
-    <row r="916" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -12973,7 +12971,7 @@
       <c r="J916" s="2"/>
       <c r="K916" s="2"/>
     </row>
-    <row r="917" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -12986,7 +12984,7 @@
       <c r="J917" s="2"/>
       <c r="K917" s="2"/>
     </row>
-    <row r="918" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -12999,7 +12997,7 @@
       <c r="J918" s="2"/>
       <c r="K918" s="2"/>
     </row>
-    <row r="919" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -13012,7 +13010,7 @@
       <c r="J919" s="2"/>
       <c r="K919" s="2"/>
     </row>
-    <row r="920" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -13025,7 +13023,7 @@
       <c r="J920" s="2"/>
       <c r="K920" s="2"/>
     </row>
-    <row r="921" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -13038,7 +13036,7 @@
       <c r="J921" s="2"/>
       <c r="K921" s="2"/>
     </row>
-    <row r="922" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -13051,7 +13049,7 @@
       <c r="J922" s="2"/>
       <c r="K922" s="2"/>
     </row>
-    <row r="923" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -13064,7 +13062,7 @@
       <c r="J923" s="2"/>
       <c r="K923" s="2"/>
     </row>
-    <row r="924" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -13077,7 +13075,7 @@
       <c r="J924" s="2"/>
       <c r="K924" s="2"/>
     </row>
-    <row r="925" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -13090,7 +13088,7 @@
       <c r="J925" s="2"/>
       <c r="K925" s="2"/>
     </row>
-    <row r="926" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -13103,7 +13101,7 @@
       <c r="J926" s="2"/>
       <c r="K926" s="2"/>
     </row>
-    <row r="927" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -13116,7 +13114,7 @@
       <c r="J927" s="2"/>
       <c r="K927" s="2"/>
     </row>
-    <row r="928" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -13129,7 +13127,7 @@
       <c r="J928" s="2"/>
       <c r="K928" s="2"/>
     </row>
-    <row r="929" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -13142,7 +13140,7 @@
       <c r="J929" s="2"/>
       <c r="K929" s="2"/>
     </row>
-    <row r="930" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -13155,7 +13153,7 @@
       <c r="J930" s="2"/>
       <c r="K930" s="2"/>
     </row>
-    <row r="931" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -13168,7 +13166,7 @@
       <c r="J931" s="2"/>
       <c r="K931" s="2"/>
     </row>
-    <row r="932" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -13181,7 +13179,7 @@
       <c r="J932" s="2"/>
       <c r="K932" s="2"/>
     </row>
-    <row r="933" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -13194,7 +13192,7 @@
       <c r="J933" s="2"/>
       <c r="K933" s="2"/>
     </row>
-    <row r="934" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -13207,7 +13205,7 @@
       <c r="J934" s="2"/>
       <c r="K934" s="2"/>
     </row>
-    <row r="935" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -13220,7 +13218,7 @@
       <c r="J935" s="2"/>
       <c r="K935" s="2"/>
     </row>
-    <row r="936" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -13233,7 +13231,7 @@
       <c r="J936" s="2"/>
       <c r="K936" s="2"/>
     </row>
-    <row r="937" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -13246,7 +13244,7 @@
       <c r="J937" s="2"/>
       <c r="K937" s="2"/>
     </row>
-    <row r="938" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -13259,7 +13257,7 @@
       <c r="J938" s="2"/>
       <c r="K938" s="2"/>
     </row>
-    <row r="939" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -13272,7 +13270,7 @@
       <c r="J939" s="2"/>
       <c r="K939" s="2"/>
     </row>
-    <row r="940" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -13285,7 +13283,7 @@
       <c r="J940" s="2"/>
       <c r="K940" s="2"/>
     </row>
-    <row r="941" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -13298,7 +13296,7 @@
       <c r="J941" s="2"/>
       <c r="K941" s="2"/>
     </row>
-    <row r="942" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -13311,7 +13309,7 @@
       <c r="J942" s="2"/>
       <c r="K942" s="2"/>
     </row>
-    <row r="943" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -13324,7 +13322,7 @@
       <c r="J943" s="2"/>
       <c r="K943" s="2"/>
     </row>
-    <row r="944" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -13337,7 +13335,7 @@
       <c r="J944" s="2"/>
       <c r="K944" s="2"/>
     </row>
-    <row r="945" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -13350,7 +13348,7 @@
       <c r="J945" s="2"/>
       <c r="K945" s="2"/>
     </row>
-    <row r="946" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -13363,7 +13361,7 @@
       <c r="J946" s="2"/>
       <c r="K946" s="2"/>
     </row>
-    <row r="947" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -13376,7 +13374,7 @@
       <c r="J947" s="2"/>
       <c r="K947" s="2"/>
     </row>
-    <row r="948" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -13389,7 +13387,7 @@
       <c r="J948" s="2"/>
       <c r="K948" s="2"/>
     </row>
-    <row r="949" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -13402,7 +13400,7 @@
       <c r="J949" s="2"/>
       <c r="K949" s="2"/>
     </row>
-    <row r="950" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -13415,7 +13413,7 @@
       <c r="J950" s="2"/>
       <c r="K950" s="2"/>
     </row>
-    <row r="951" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -13428,7 +13426,7 @@
       <c r="J951" s="2"/>
       <c r="K951" s="2"/>
     </row>
-    <row r="952" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -13441,7 +13439,7 @@
       <c r="J952" s="2"/>
       <c r="K952" s="2"/>
     </row>
-    <row r="953" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -13454,7 +13452,7 @@
       <c r="J953" s="2"/>
       <c r="K953" s="2"/>
     </row>
-    <row r="954" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -13467,7 +13465,7 @@
       <c r="J954" s="2"/>
       <c r="K954" s="2"/>
     </row>
-    <row r="955" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -13480,7 +13478,7 @@
       <c r="J955" s="2"/>
       <c r="K955" s="2"/>
     </row>
-    <row r="956" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -13493,7 +13491,7 @@
       <c r="J956" s="2"/>
       <c r="K956" s="2"/>
     </row>
-    <row r="957" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -13506,7 +13504,7 @@
       <c r="J957" s="2"/>
       <c r="K957" s="2"/>
     </row>
-    <row r="958" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -13519,7 +13517,7 @@
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
     </row>
-    <row r="959" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -13532,7 +13530,7 @@
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
     </row>
-    <row r="960" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -13545,7 +13543,7 @@
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
     </row>
-    <row r="961" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -13558,7 +13556,7 @@
       <c r="J961" s="2"/>
       <c r="K961" s="2"/>
     </row>
-    <row r="962" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -13571,7 +13569,7 @@
       <c r="J962" s="2"/>
       <c r="K962" s="2"/>
     </row>
-    <row r="963" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -13584,7 +13582,7 @@
       <c r="J963" s="2"/>
       <c r="K963" s="2"/>
     </row>
-    <row r="964" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -13597,7 +13595,7 @@
       <c r="J964" s="2"/>
       <c r="K964" s="2"/>
     </row>
-    <row r="965" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -13610,7 +13608,7 @@
       <c r="J965" s="2"/>
       <c r="K965" s="2"/>
     </row>
-    <row r="966" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -13623,7 +13621,7 @@
       <c r="J966" s="2"/>
       <c r="K966" s="2"/>
     </row>
-    <row r="967" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -13636,7 +13634,7 @@
       <c r="J967" s="2"/>
       <c r="K967" s="2"/>
     </row>
-    <row r="968" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -13649,7 +13647,7 @@
       <c r="J968" s="2"/>
       <c r="K968" s="2"/>
     </row>
-    <row r="969" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -13662,7 +13660,7 @@
       <c r="J969" s="2"/>
       <c r="K969" s="2"/>
     </row>
-    <row r="970" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -13675,7 +13673,7 @@
       <c r="J970" s="2"/>
       <c r="K970" s="2"/>
     </row>
-    <row r="971" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -13688,7 +13686,7 @@
       <c r="J971" s="2"/>
       <c r="K971" s="2"/>
     </row>
-    <row r="972" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -13701,7 +13699,7 @@
       <c r="J972" s="2"/>
       <c r="K972" s="2"/>
     </row>
-    <row r="973" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -13714,7 +13712,7 @@
       <c r="J973" s="2"/>
       <c r="K973" s="2"/>
     </row>
-    <row r="974" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -13727,7 +13725,7 @@
       <c r="J974" s="2"/>
       <c r="K974" s="2"/>
     </row>
-    <row r="975" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -13740,7 +13738,7 @@
       <c r="J975" s="2"/>
       <c r="K975" s="2"/>
     </row>
-    <row r="976" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -13753,7 +13751,7 @@
       <c r="J976" s="2"/>
       <c r="K976" s="2"/>
     </row>
-    <row r="977" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -13766,7 +13764,7 @@
       <c r="J977" s="2"/>
       <c r="K977" s="2"/>
     </row>
-    <row r="978" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -13779,7 +13777,7 @@
       <c r="J978" s="2"/>
       <c r="K978" s="2"/>
     </row>
-    <row r="979" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -13792,7 +13790,7 @@
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
     </row>
-    <row r="980" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -13805,7 +13803,7 @@
       <c r="J980" s="2"/>
       <c r="K980" s="2"/>
     </row>
-    <row r="981" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -13818,7 +13816,7 @@
       <c r="J981" s="2"/>
       <c r="K981" s="2"/>
     </row>
-    <row r="982" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -13831,7 +13829,7 @@
       <c r="J982" s="2"/>
       <c r="K982" s="2"/>
     </row>
-    <row r="983" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -13844,7 +13842,7 @@
       <c r="J983" s="2"/>
       <c r="K983" s="2"/>
     </row>
-    <row r="984" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -13857,7 +13855,7 @@
       <c r="J984" s="2"/>
       <c r="K984" s="2"/>
     </row>
-    <row r="985" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -13870,7 +13868,7 @@
       <c r="J985" s="2"/>
       <c r="K985" s="2"/>
     </row>
-    <row r="986" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -13883,7 +13881,7 @@
       <c r="J986" s="2"/>
       <c r="K986" s="2"/>
     </row>
-    <row r="987" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -13896,7 +13894,7 @@
       <c r="J987" s="2"/>
       <c r="K987" s="2"/>
     </row>
-    <row r="988" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -13909,7 +13907,7 @@
       <c r="J988" s="2"/>
       <c r="K988" s="2"/>
     </row>
-    <row r="989" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -13922,7 +13920,7 @@
       <c r="J989" s="2"/>
       <c r="K989" s="2"/>
     </row>
-    <row r="990" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -13935,7 +13933,7 @@
       <c r="J990" s="2"/>
       <c r="K990" s="2"/>
     </row>
-    <row r="991" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -13948,7 +13946,7 @@
       <c r="J991" s="2"/>
       <c r="K991" s="2"/>
     </row>
-    <row r="992" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -13961,7 +13959,7 @@
       <c r="J992" s="2"/>
       <c r="K992" s="2"/>
     </row>
-    <row r="993" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -13974,7 +13972,7 @@
       <c r="J993" s="2"/>
       <c r="K993" s="2"/>
     </row>
-    <row r="994" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -13987,7 +13985,7 @@
       <c r="J994" s="2"/>
       <c r="K994" s="2"/>
     </row>
-    <row r="995" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -14000,7 +13998,7 @@
       <c r="J995" s="2"/>
       <c r="K995" s="2"/>
     </row>
-    <row r="996" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -14013,7 +14011,7 @@
       <c r="J996" s="2"/>
       <c r="K996" s="2"/>
     </row>
-    <row r="997" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -14026,7 +14024,7 @@
       <c r="J997" s="2"/>
       <c r="K997" s="2"/>
     </row>
-    <row r="998" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
